--- a/docs/IMDB Top 250 Movies.xlsx
+++ b/docs/IMDB Top 250 Movies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\react\movie-bucketlist\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2D0F73-5EFE-4F6B-8E75-F72D74E93B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3D4DED-DB66-4A9B-BAD8-6CF62C55B57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{346207D0-9AA0-42DB-A453-BB1282A9E7EA}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="1087">
   <si>
     <t>Drama</t>
   </si>
@@ -3260,6 +3260,27 @@
   </si>
   <si>
     <t>topic</t>
+  </si>
+  <si>
+    <t>Comedy;Family</t>
+  </si>
+  <si>
+    <t>Home Alone</t>
+  </si>
+  <si>
+    <t>An eight-year-old troublemaker must protect his house from a pair of burglars when he is accidentally left home alone by his family during Christmas vacation.</t>
+  </si>
+  <si>
+    <t>Home Alone 2: Lost in New York</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>2h 00m</t>
+  </si>
+  <si>
+    <t>One year after Kevin McCallister was left home alone and had to defeat a pair of bumbling burglars, he accidentally finds himself stranded in New York City - and the same criminals are not far behind.</t>
   </si>
 </sst>
 </file>
@@ -4148,10 +4169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B372DD-848A-447C-BEE1-0C4F8EF77C63}">
-  <dimension ref="A1:K305"/>
+  <dimension ref="A1:K307"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14192,6 +14213,70 @@
       </c>
       <c r="K305" t="s">
         <v>1072</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>267</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E306" s="5">
+        <v>1990</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="H306" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="I306" t="s">
+        <v>906</v>
+      </c>
+      <c r="J306" t="s">
+        <v>322</v>
+      </c>
+      <c r="K306" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>267</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E307" s="5">
+        <v>1992</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="H307" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I307" t="s">
+        <v>906</v>
+      </c>
+      <c r="J307" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K307" t="s">
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
@@ -14211,7 +14296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H305">
+  <conditionalFormatting sqref="H2:H315">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>"8.0"</formula>
     </cfRule>

--- a/docs/IMDB Top 250 Movies.xlsx
+++ b/docs/IMDB Top 250 Movies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\react\movie-bucketlist\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3D4DED-DB66-4A9B-BAD8-6CF62C55B57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DA32CF-D650-427C-BAB3-437527AA1B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{346207D0-9AA0-42DB-A453-BB1282A9E7EA}"/>
   </bookViews>
@@ -826,15 +826,9 @@
     <t>Comedy;War</t>
   </si>
   <si>
-    <t>Dr. Strangelove or: How I Learned to Stop Worrying and Love the Bomb</t>
-  </si>
-  <si>
     <t>1h 35m</t>
   </si>
   <si>
-    <t>An insane American general orders a bombing attack on the Soviet Union, triggering a path to nuclear holocaust that a war room full of politicians and generals frantically tries to stop.</t>
-  </si>
-  <si>
     <t>Action;Adventure;Animation</t>
   </si>
   <si>
@@ -3281,6 +3275,12 @@
   </si>
   <si>
     <t>One year after Kevin McCallister was left home alone and had to defeat a pair of bumbling burglars, he accidentally finds himself stranded in New York City - and the same criminals are not far behind.</t>
+  </si>
+  <si>
+    <t>Dr. Strangelove</t>
+  </si>
+  <si>
+    <t>Alternative title: How I Learned to Stop Worrying and Love the Bomb. An insane American general orders a bombing attack on the Soviet Union, triggering a path to nuclear holocaust that a war room full of politicians and generals frantically tries to stop.</t>
   </si>
 </sst>
 </file>
@@ -4172,7 +4172,7 @@
   <dimension ref="A1:K307"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+      <selection activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4188,37 +4188,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D1" t="s">
+        <v>891</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>1073</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
+        <v>894</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I1" t="s">
         <v>1074</v>
       </c>
-      <c r="C1" t="s">
-        <v>894</v>
-      </c>
-      <c r="D1" t="s">
-        <v>893</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>895</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G1" t="s">
-        <v>896</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K1" t="s">
         <v>1077</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -4229,7 +4229,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D2" s="3">
         <v>1917</v>
@@ -4238,11 +4238,11 @@
         <v>2019</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I2" t="s">
         <v>264</v>
@@ -4251,7 +4251,7 @@
         <v>158</v>
       </c>
       <c r="K2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -4271,7 +4271,7 @@
         <v>1957</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="4" t="s">
@@ -4304,20 +4304,20 @@
         <v>1997</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="J4" t="s">
         <v>210</v>
       </c>
       <c r="K4" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -4331,26 +4331,26 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E5" s="5">
         <v>2013</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -4361,16 +4361,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E6" s="5">
         <v>1968</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="4" t="s">
@@ -4383,7 +4383,7 @@
         <v>258</v>
       </c>
       <c r="K6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -4394,29 +4394,29 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E7" s="5">
         <v>2009</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I7" t="s">
+        <v>335</v>
+      </c>
+      <c r="J7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K7" t="s">
         <v>337</v>
-      </c>
-      <c r="J7" t="s">
-        <v>338</v>
-      </c>
-      <c r="K7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -4427,29 +4427,29 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E8" s="5">
         <v>2001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I8" t="s">
+        <v>524</v>
+      </c>
+      <c r="J8" t="s">
+        <v>525</v>
+      </c>
+      <c r="K8" t="s">
         <v>526</v>
-      </c>
-      <c r="J8" t="s">
-        <v>527</v>
-      </c>
-      <c r="K8" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -4460,20 +4460,20 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E9" s="5">
         <v>1971</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I9" t="s">
         <v>245</v>
@@ -4482,7 +4482,7 @@
         <v>68</v>
       </c>
       <c r="K9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -4496,26 +4496,26 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E10" s="5">
         <v>2011</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I10" t="s">
+        <v>435</v>
+      </c>
+      <c r="J10" t="s">
+        <v>436</v>
+      </c>
+      <c r="K10" t="s">
         <v>437</v>
-      </c>
-      <c r="J10" t="s">
-        <v>438</v>
-      </c>
-      <c r="K10" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -4526,29 +4526,29 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E11" s="5">
         <v>1992</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I11" t="s">
+        <v>843</v>
+      </c>
+      <c r="J11" t="s">
+        <v>844</v>
+      </c>
+      <c r="K11" t="s">
         <v>845</v>
-      </c>
-      <c r="J11" t="s">
-        <v>846</v>
-      </c>
-      <c r="K11" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -4568,7 +4568,7 @@
         <v>1979</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="4" t="s">
@@ -4601,7 +4601,7 @@
         <v>1986</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="4" t="s">
@@ -4628,26 +4628,26 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E14" s="5">
         <v>1950</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -4661,13 +4661,13 @@
         <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E15" s="5">
         <v>1984</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="4" t="s">
@@ -4677,10 +4677,10 @@
         <v>76</v>
       </c>
       <c r="J15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -4691,29 +4691,29 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E16" s="5">
         <v>2001</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J16" t="s">
         <v>265</v>
       </c>
       <c r="K16" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -4733,7 +4733,7 @@
         <v>1999</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="4" t="s">
@@ -4766,7 +4766,7 @@
         <v>1998</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="4" t="s">
@@ -4790,29 +4790,29 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D19" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E19" s="5">
         <v>2000</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I19" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="J19" t="s">
         <v>36</v>
       </c>
       <c r="K19" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -4832,7 +4832,7 @@
         <v>1979</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="4" t="s">
@@ -4856,29 +4856,29 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D21" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E21" s="5">
         <v>2009</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I21" t="s">
         <v>122</v>
       </c>
       <c r="J21" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K21" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -4889,29 +4889,29 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D22" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E22" s="5">
         <v>2022</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I22" t="s">
         <v>122</v>
       </c>
       <c r="J22" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="K22" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -4922,16 +4922,16 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E23" s="5">
         <v>2019</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="4" t="s">
@@ -4941,10 +4941,10 @@
         <v>257</v>
       </c>
       <c r="J23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -4964,7 +4964,7 @@
         <v>2018</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="4" t="s">
@@ -4988,7 +4988,7 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D25" t="s">
         <v>124</v>
@@ -4997,7 +4997,7 @@
         <v>1985</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="4" t="s">
@@ -5010,7 +5010,7 @@
         <v>108</v>
       </c>
       <c r="K25" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -5021,29 +5021,29 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D26" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E26" s="5">
         <v>1989</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I26" t="s">
         <v>48</v>
       </c>
       <c r="J26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K26" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -5054,20 +5054,20 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D27" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E27" s="5">
         <v>1990</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I27" t="s">
         <v>48</v>
@@ -5076,7 +5076,7 @@
         <v>96</v>
       </c>
       <c r="K27" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -5087,29 +5087,29 @@
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D28" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E28" s="5">
         <v>1975</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I28" t="s">
         <v>245</v>
       </c>
       <c r="J28" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="K28" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -5123,26 +5123,26 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E29" s="5">
         <v>2005</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I29" t="s">
         <v>12</v>
       </c>
       <c r="J29" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K29" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -5153,29 +5153,29 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D30" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E30" s="5">
         <v>1991</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I30" t="s">
+        <v>858</v>
+      </c>
+      <c r="J30" t="s">
+        <v>859</v>
+      </c>
+      <c r="K30" t="s">
         <v>860</v>
-      </c>
-      <c r="J30" t="s">
-        <v>861</v>
-      </c>
-      <c r="K30" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -5189,26 +5189,26 @@
         <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E31" s="5">
         <v>1995</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I31" t="s">
+        <v>658</v>
+      </c>
+      <c r="J31" t="s">
+        <v>659</v>
+      </c>
+      <c r="K31" t="s">
         <v>660</v>
-      </c>
-      <c r="J31" t="s">
-        <v>661</v>
-      </c>
-      <c r="K31" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -5222,26 +5222,26 @@
         <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E32" s="5">
         <v>2004</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I32" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J32" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="K32" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -5252,29 +5252,29 @@
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D33" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E33" s="5">
         <v>1959</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I33" t="s">
+        <v>644</v>
+      </c>
+      <c r="J33" t="s">
+        <v>645</v>
+      </c>
+      <c r="K33" t="s">
         <v>646</v>
-      </c>
-      <c r="J33" t="s">
-        <v>647</v>
-      </c>
-      <c r="K33" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -5288,26 +5288,26 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E34" s="5">
         <v>1948</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I34" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J34" t="s">
         <v>199</v>
       </c>
       <c r="K34" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -5318,29 +5318,29 @@
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D35" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E35" s="5">
         <v>2018</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="I35" t="s">
+        <v>867</v>
+      </c>
+      <c r="J35" t="s">
+        <v>525</v>
+      </c>
+      <c r="K35" t="s">
         <v>868</v>
-      </c>
-      <c r="I35" t="s">
-        <v>869</v>
-      </c>
-      <c r="J35" t="s">
-        <v>527</v>
-      </c>
-      <c r="K35" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -5351,20 +5351,20 @@
         <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D36" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E36" s="5">
         <v>1982</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I36" t="s">
         <v>153</v>
@@ -5373,7 +5373,7 @@
         <v>210</v>
       </c>
       <c r="K36" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -5384,29 +5384,29 @@
         <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D37" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E37" s="5">
         <v>1995</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I37" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J37" t="s">
         <v>40</v>
       </c>
       <c r="K37" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -5420,26 +5420,26 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E38" s="5">
         <v>2018</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I38" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J38" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K38" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -5459,7 +5459,7 @@
         <v>1942</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="4" t="s">
@@ -5486,17 +5486,17 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E40" s="5">
         <v>1995</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I40" t="s">
         <v>71</v>
@@ -5505,7 +5505,7 @@
         <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -5516,29 +5516,29 @@
         <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D41" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E41" s="5">
         <v>2002</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I41" t="s">
         <v>26</v>
       </c>
       <c r="J41" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K41" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -5549,29 +5549,29 @@
         <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D42" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E42" s="5">
         <v>1997</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I42" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J42" t="s">
         <v>199</v>
       </c>
       <c r="K42" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -5585,17 +5585,17 @@
         <v>236</v>
       </c>
       <c r="D43" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E43" s="5">
         <v>1974</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I43" t="s">
         <v>135</v>
@@ -5604,7 +5604,7 @@
         <v>91</v>
       </c>
       <c r="K43" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -5624,7 +5624,7 @@
         <v>1988</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="4" t="s">
@@ -5648,29 +5648,29 @@
         <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D45" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E45" s="5">
         <v>1941</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I45" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J45" t="s">
         <v>158</v>
       </c>
       <c r="K45" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -5690,7 +5690,7 @@
         <v>1931</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="4" t="s">
@@ -5723,7 +5723,7 @@
         <v>2002</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="4" t="s">
@@ -5747,29 +5747,29 @@
         <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D48" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E48" s="5">
         <v>2017</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I48" t="s">
+        <v>293</v>
+      </c>
+      <c r="J48" t="s">
+        <v>294</v>
+      </c>
+      <c r="K48" t="s">
         <v>295</v>
-      </c>
-      <c r="J48" t="s">
-        <v>296</v>
-      </c>
-      <c r="K48" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -5780,29 +5780,29 @@
         <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D49" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E49" s="5">
         <v>1985</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I49" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J49" t="s">
         <v>4</v>
       </c>
       <c r="K49" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
@@ -5816,26 +5816,26 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E50" s="5">
         <v>1967</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I50" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="J50" t="s">
         <v>81</v>
       </c>
       <c r="K50" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -5846,29 +5846,29 @@
         <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D51" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E51" s="5">
         <v>2016</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I51" t="s">
+        <v>472</v>
+      </c>
+      <c r="J51" t="s">
+        <v>473</v>
+      </c>
+      <c r="K51" t="s">
         <v>474</v>
-      </c>
-      <c r="J51" t="s">
-        <v>475</v>
-      </c>
-      <c r="K51" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5879,29 +5879,29 @@
         <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D52" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E52" s="5">
         <v>1989</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I52" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J52" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K52" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
@@ -5912,20 +5912,20 @@
         <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D53" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E53" s="5">
         <v>1975</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I53" t="s">
         <v>85</v>
@@ -5934,7 +5934,7 @@
         <v>4</v>
       </c>
       <c r="K53" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
@@ -5945,29 +5945,29 @@
         <v>46</v>
       </c>
       <c r="C54" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D54" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E54" s="5">
         <v>1954</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I54" t="s">
         <v>130</v>
       </c>
       <c r="J54" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K54" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
@@ -5978,29 +5978,29 @@
         <v>47</v>
       </c>
       <c r="C55" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D55" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E55" s="5">
         <v>1988</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I55" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J55" t="s">
         <v>145</v>
       </c>
       <c r="K55" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
@@ -6011,29 +6011,29 @@
         <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D56" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E56" s="5">
         <v>1990</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="4" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="I56" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="J56" t="s">
         <v>65</v>
       </c>
       <c r="K56" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
@@ -6044,29 +6044,29 @@
         <v>47</v>
       </c>
       <c r="C57" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D57" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E57" s="5">
         <v>1995</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I57" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J57" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K57" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
@@ -6086,7 +6086,7 @@
         <v>2012</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="4" t="s">
@@ -6110,29 +6110,29 @@
         <v>49</v>
       </c>
       <c r="C59" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D59" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E59" s="5">
         <v>1944</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I59" t="s">
         <v>242</v>
       </c>
       <c r="J59" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K59" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
@@ -6146,26 +6146,26 @@
         <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E60" s="5">
         <v>2004</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I60" t="s">
+        <v>462</v>
+      </c>
+      <c r="J60" t="s">
+        <v>463</v>
+      </c>
+      <c r="K60" t="s">
         <v>464</v>
-      </c>
-      <c r="J60" t="s">
-        <v>465</v>
-      </c>
-      <c r="K60" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -6179,13 +6179,13 @@
         <v>267</v>
       </c>
       <c r="D61" t="s">
-        <v>268</v>
+        <v>1085</v>
       </c>
       <c r="E61" s="5">
         <v>1964</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="4" t="s">
@@ -6195,10 +6195,10 @@
         <v>245</v>
       </c>
       <c r="J61" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K61" t="s">
-        <v>270</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
@@ -6209,29 +6209,29 @@
         <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D62" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E62" s="5">
         <v>2004</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I62" t="s">
+        <v>347</v>
+      </c>
+      <c r="J62" t="s">
+        <v>348</v>
+      </c>
+      <c r="K62" t="s">
         <v>349</v>
-      </c>
-      <c r="J62" t="s">
-        <v>350</v>
-      </c>
-      <c r="K62" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
@@ -6242,29 +6242,29 @@
         <v>53</v>
       </c>
       <c r="C63" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D63" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E63" s="5">
         <v>2022</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I63" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J63" t="s">
         <v>53</v>
       </c>
       <c r="K63" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
@@ -6275,29 +6275,29 @@
         <v>54</v>
       </c>
       <c r="C64" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D64" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E64" s="5">
         <v>1996</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I64" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J64" t="s">
         <v>234</v>
       </c>
       <c r="K64" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
@@ -6317,7 +6317,7 @@
         <v>1999</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="4" t="s">
@@ -6341,29 +6341,29 @@
         <v>56</v>
       </c>
       <c r="C66" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D66" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E66" s="5">
         <v>2003</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I66" t="s">
+        <v>560</v>
+      </c>
+      <c r="J66" t="s">
+        <v>561</v>
+      </c>
+      <c r="K66" t="s">
         <v>562</v>
-      </c>
-      <c r="J66" t="s">
-        <v>563</v>
-      </c>
-      <c r="K66" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
@@ -6377,17 +6377,17 @@
         <v>201</v>
       </c>
       <c r="D67" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E67" s="5">
         <v>1965</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I67" t="s">
         <v>44</v>
@@ -6396,7 +6396,7 @@
         <v>145</v>
       </c>
       <c r="K67" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
@@ -6407,29 +6407,29 @@
         <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D68" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E68" s="5">
         <v>2019</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I68" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J68" t="s">
         <v>13</v>
       </c>
       <c r="K68" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
@@ -6449,7 +6449,7 @@
         <v>1994</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="4" t="s">
@@ -6476,17 +6476,17 @@
         <v>101</v>
       </c>
       <c r="D70" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E70" s="5">
         <v>1987</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I70" t="s">
         <v>245</v>
@@ -6495,7 +6495,7 @@
         <v>108</v>
       </c>
       <c r="K70" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
@@ -6506,29 +6506,29 @@
         <v>61</v>
       </c>
       <c r="C71" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D71" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E71" s="5">
         <v>1982</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I71" t="s">
+        <v>847</v>
+      </c>
+      <c r="J71" t="s">
+        <v>848</v>
+      </c>
+      <c r="K71" t="s">
         <v>849</v>
-      </c>
-      <c r="J71" t="s">
-        <v>850</v>
-      </c>
-      <c r="K71" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
@@ -6548,7 +6548,7 @@
         <v>2000</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="4" t="s">
@@ -6575,17 +6575,17 @@
         <v>236</v>
       </c>
       <c r="D73" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E73" s="5">
         <v>2014</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I73" t="s">
         <v>52</v>
@@ -6594,7 +6594,7 @@
         <v>258</v>
       </c>
       <c r="K73" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
@@ -6608,26 +6608,26 @@
         <v>170</v>
       </c>
       <c r="D74" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E74" s="5">
         <v>1939</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I74" t="s">
+        <v>571</v>
+      </c>
+      <c r="J74" t="s">
+        <v>572</v>
+      </c>
+      <c r="K74" t="s">
         <v>573</v>
-      </c>
-      <c r="J74" t="s">
-        <v>574</v>
-      </c>
-      <c r="K74" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
@@ -6641,26 +6641,26 @@
         <v>46</v>
       </c>
       <c r="D75" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E75" s="5">
         <v>1997</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I75" t="s">
+        <v>315</v>
+      </c>
+      <c r="J75" t="s">
+        <v>316</v>
+      </c>
+      <c r="K75" t="s">
         <v>317</v>
-      </c>
-      <c r="J75" t="s">
-        <v>318</v>
-      </c>
-      <c r="K75" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
@@ -6680,7 +6680,7 @@
         <v>1990</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="4" t="s">
@@ -6707,26 +6707,26 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E77" s="5">
         <v>2008</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I77" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J77" t="s">
         <v>108</v>
       </c>
       <c r="K77" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
@@ -6746,7 +6746,7 @@
         <v>1988</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="4" t="s">
@@ -6770,29 +6770,29 @@
         <v>69</v>
       </c>
       <c r="C79" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D79" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E79" s="5">
         <v>2018</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I79" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J79" t="s">
         <v>91</v>
       </c>
       <c r="K79" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
@@ -6803,29 +6803,29 @@
         <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D80" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E80" s="5">
         <v>1993</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I80" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="J80" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="K80" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
@@ -6836,29 +6836,29 @@
         <v>71</v>
       </c>
       <c r="C81" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D81" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E81" s="5">
         <v>2014</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I81" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="J81" t="s">
         <v>118</v>
       </c>
       <c r="K81" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
@@ -6869,29 +6869,29 @@
         <v>72</v>
       </c>
       <c r="C82" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D82" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E82" s="5">
         <v>2009</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I82" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="J82" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K82" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
@@ -6902,29 +6902,29 @@
         <v>73</v>
       </c>
       <c r="C83" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D83" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E83" s="5">
         <v>2016</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I83" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J83" t="s">
         <v>53</v>
       </c>
       <c r="K83" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
@@ -6935,29 +6935,29 @@
         <v>74</v>
       </c>
       <c r="C84" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D84" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E84" s="5">
         <v>2020</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I84" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J84" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K84" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
@@ -6977,7 +6977,7 @@
         <v>1962</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="4" t="s">
@@ -7001,29 +7001,29 @@
         <v>76</v>
       </c>
       <c r="C86" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D86" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E86" s="5">
         <v>2002</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I86" t="s">
+        <v>904</v>
+      </c>
+      <c r="J86" t="s">
+        <v>473</v>
+      </c>
+      <c r="K86" t="s">
         <v>906</v>
-      </c>
-      <c r="J86" t="s">
-        <v>475</v>
-      </c>
-      <c r="K86" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
@@ -7034,29 +7034,29 @@
         <v>76</v>
       </c>
       <c r="C87" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D87" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E87" s="5">
         <v>2010</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="I87" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J87" t="s">
         <v>249</v>
       </c>
       <c r="K87" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
@@ -7067,29 +7067,29 @@
         <v>76</v>
       </c>
       <c r="C88" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D88" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E88" s="5">
         <v>2011</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I88" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J88" t="s">
         <v>91</v>
       </c>
       <c r="K88" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
@@ -7100,29 +7100,29 @@
         <v>76</v>
       </c>
       <c r="C89" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D89" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E89" s="5">
         <v>2005</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="I89" t="s">
+        <v>911</v>
+      </c>
+      <c r="J89" t="s">
         <v>912</v>
       </c>
-      <c r="I89" t="s">
-        <v>913</v>
-      </c>
-      <c r="J89" t="s">
-        <v>914</v>
-      </c>
       <c r="K89" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
@@ -7133,29 +7133,29 @@
         <v>76</v>
       </c>
       <c r="C90" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D90" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E90" s="5">
         <v>2009</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I90" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J90" t="s">
         <v>36</v>
       </c>
       <c r="K90" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
@@ -7166,29 +7166,29 @@
         <v>76</v>
       </c>
       <c r="C91" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D91" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E91" s="5">
         <v>2007</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I91" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J91" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K91" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
@@ -7199,29 +7199,29 @@
         <v>76</v>
       </c>
       <c r="C92" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D92" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E92" s="5">
         <v>2001</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="I92" t="s">
         <v>904</v>
-      </c>
-      <c r="I92" t="s">
-        <v>906</v>
       </c>
       <c r="J92" t="s">
         <v>13</v>
       </c>
       <c r="K92" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
@@ -7232,29 +7232,29 @@
         <v>76</v>
       </c>
       <c r="C93" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D93" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E93" s="5">
         <v>2004</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I93" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="J93" t="s">
         <v>4</v>
       </c>
       <c r="K93" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
@@ -7268,26 +7268,26 @@
         <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E94" s="5">
         <v>1995</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I94" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J94" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K94" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
@@ -7301,13 +7301,13 @@
         <v>79</v>
       </c>
       <c r="D95" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E95" s="5">
         <v>1963</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="4" t="s">
@@ -7317,10 +7317,10 @@
         <v>85</v>
       </c>
       <c r="J95" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K95" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
@@ -7331,29 +7331,29 @@
         <v>79</v>
       </c>
       <c r="C96" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D96" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E96" s="5">
         <v>2004</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I96" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="J96" t="s">
         <v>118</v>
       </c>
       <c r="K96" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
@@ -7364,29 +7364,29 @@
         <v>80</v>
       </c>
       <c r="C97" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E97" s="1">
         <v>2010</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I97" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="J97" t="s">
         <v>234</v>
       </c>
       <c r="K97" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
@@ -7397,29 +7397,29 @@
         <v>80</v>
       </c>
       <c r="C98" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E98" s="1">
         <v>2014</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I98" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J98" t="s">
         <v>173</v>
       </c>
       <c r="K98" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
@@ -7430,29 +7430,29 @@
         <v>80</v>
       </c>
       <c r="C99" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E99" s="1">
         <v>2019</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I99" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J99" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="K99" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
@@ -7466,17 +7466,17 @@
         <v>125</v>
       </c>
       <c r="D100" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E100" s="5">
         <v>2004</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I100" t="s">
         <v>126</v>
@@ -7485,7 +7485,7 @@
         <v>158</v>
       </c>
       <c r="K100" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
@@ -7499,26 +7499,26 @@
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E101" s="5">
         <v>1952</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I101" t="s">
         <v>85</v>
       </c>
       <c r="J101" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K101" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
@@ -7529,29 +7529,29 @@
         <v>83</v>
       </c>
       <c r="C102" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D102" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E102" s="5">
         <v>1993</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I102" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="J102" t="s">
         <v>77</v>
       </c>
       <c r="K102" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
@@ -7562,29 +7562,29 @@
         <v>84</v>
       </c>
       <c r="C103" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D103" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E103" s="5">
         <v>2010</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I103" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J103" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K103" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
@@ -7604,7 +7604,7 @@
         <v>2010</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="4" t="s">
@@ -7628,20 +7628,20 @@
         <v>86</v>
       </c>
       <c r="C105" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D105" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E105" s="5">
         <v>2008</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G105" s="2"/>
       <c r="H105" s="4" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="I105" t="s">
         <v>26</v>
@@ -7650,7 +7650,7 @@
         <v>265</v>
       </c>
       <c r="K105" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
@@ -7661,20 +7661,20 @@
         <v>86</v>
       </c>
       <c r="C106" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D106" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E106" s="5">
         <v>1989</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I106" t="s">
         <v>26</v>
@@ -7683,7 +7683,7 @@
         <v>81</v>
       </c>
       <c r="K106" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
@@ -7703,7 +7703,7 @@
         <v>1981</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="4" t="s">
@@ -7727,20 +7727,20 @@
         <v>86</v>
       </c>
       <c r="C108" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D108" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E108" s="5">
         <v>1984</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I108" t="s">
         <v>26</v>
@@ -7749,7 +7749,7 @@
         <v>96</v>
       </c>
       <c r="K108" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
@@ -7760,16 +7760,16 @@
         <v>87</v>
       </c>
       <c r="C109" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D109" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E109" s="5">
         <v>2009</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="4" t="s">
@@ -7779,10 +7779,10 @@
         <v>35</v>
       </c>
       <c r="J109" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K109" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
@@ -7793,29 +7793,29 @@
         <v>88</v>
       </c>
       <c r="C110" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D110" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E110" s="5">
         <v>2015</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I110" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J110" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K110" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
@@ -7835,7 +7835,7 @@
         <v>2014</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="4" t="s">
@@ -7859,29 +7859,29 @@
         <v>90</v>
       </c>
       <c r="C112" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D112" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E112" s="5">
         <v>2007</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I112" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="J112" t="s">
         <v>57</v>
       </c>
       <c r="K112" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
@@ -7892,29 +7892,29 @@
         <v>91</v>
       </c>
       <c r="C113" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D113" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E113" s="5">
         <v>1934</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I113" t="s">
         <v>90</v>
       </c>
       <c r="J113" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K113" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
@@ -7934,7 +7934,7 @@
         <v>1946</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="4" t="s">
@@ -7961,26 +7961,26 @@
         <v>79</v>
       </c>
       <c r="D115" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E115" s="5">
         <v>2021</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I115" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="J115" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K115" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
@@ -7991,20 +7991,20 @@
         <v>94</v>
       </c>
       <c r="C116" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D116" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E116" s="5">
         <v>1975</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I116" t="s">
         <v>26</v>
@@ -8013,7 +8013,7 @@
         <v>65</v>
       </c>
       <c r="K116" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
@@ -8027,26 +8027,26 @@
         <v>93</v>
       </c>
       <c r="D117" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E117" s="5">
         <v>2019</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I117" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J117" t="s">
         <v>265</v>
       </c>
       <c r="K117" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
@@ -8060,26 +8060,26 @@
         <v>101</v>
       </c>
       <c r="D118" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E118" s="5">
         <v>1961</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I118" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J118" t="s">
         <v>60</v>
       </c>
       <c r="K118" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
@@ -8093,17 +8093,17 @@
         <v>55</v>
       </c>
       <c r="D119" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E119" s="5">
         <v>1993</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I119" t="s">
         <v>26</v>
@@ -8112,7 +8112,7 @@
         <v>81</v>
       </c>
       <c r="K119" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
@@ -8123,29 +8123,29 @@
         <v>98</v>
       </c>
       <c r="C120" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D120" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E120" s="5">
         <v>2003</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I120" t="s">
         <v>35</v>
       </c>
       <c r="J120" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K120" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
@@ -8156,20 +8156,20 @@
         <v>98</v>
       </c>
       <c r="C121" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D121" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E121" s="5">
         <v>2004</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I121" t="s">
         <v>35</v>
@@ -8178,7 +8178,7 @@
         <v>123</v>
       </c>
       <c r="K121" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
@@ -8189,29 +8189,29 @@
         <v>99</v>
       </c>
       <c r="C122" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D122" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E122" s="5">
         <v>2019</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I122" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J122" t="s">
         <v>22</v>
       </c>
       <c r="K122" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
@@ -8225,26 +8225,26 @@
         <v>79</v>
       </c>
       <c r="D123" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E123" s="5">
         <v>1997</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I123" t="s">
+        <v>419</v>
+      </c>
+      <c r="J123" t="s">
+        <v>420</v>
+      </c>
+      <c r="K123" t="s">
         <v>421</v>
-      </c>
-      <c r="J123" t="s">
-        <v>422</v>
-      </c>
-      <c r="K123" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
@@ -8258,26 +8258,26 @@
         <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E124" s="5">
         <v>1995</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I124" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J124" t="s">
         <v>234</v>
       </c>
       <c r="K124" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
@@ -8288,29 +8288,29 @@
         <v>102</v>
       </c>
       <c r="C125" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D125" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E125" s="5">
         <v>1962</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I125" t="s">
+        <v>365</v>
+      </c>
+      <c r="J125" t="s">
+        <v>366</v>
+      </c>
+      <c r="K125" t="s">
         <v>367</v>
-      </c>
-      <c r="J125" t="s">
-        <v>368</v>
-      </c>
-      <c r="K125" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
@@ -8330,7 +8330,7 @@
         <v>1994</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="4" t="s">
@@ -8363,7 +8363,7 @@
         <v>1997</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="4" t="s">
@@ -8387,29 +8387,29 @@
         <v>105</v>
       </c>
       <c r="C128" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D128" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E128" s="5">
         <v>1979</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I128" t="s">
+        <v>828</v>
+      </c>
+      <c r="J128" t="s">
+        <v>829</v>
+      </c>
+      <c r="K128" t="s">
         <v>830</v>
-      </c>
-      <c r="J128" t="s">
-        <v>831</v>
-      </c>
-      <c r="K128" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
@@ -8420,29 +8420,29 @@
         <v>106</v>
       </c>
       <c r="C129" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D129" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E129" s="5">
         <v>2007</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I129" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J129" t="s">
         <v>203</v>
       </c>
       <c r="K129" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
@@ -8453,29 +8453,29 @@
         <v>107</v>
       </c>
       <c r="C130" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D130" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E130" s="5">
         <v>1998</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I130" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J130" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K130" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
@@ -8486,29 +8486,29 @@
         <v>108</v>
       </c>
       <c r="C131" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D131" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E131" s="5">
         <v>2017</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I131" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J131" t="s">
         <v>123</v>
       </c>
       <c r="K131" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
@@ -8519,29 +8519,29 @@
         <v>109</v>
       </c>
       <c r="C132" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D132" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E132" s="5">
         <v>1931</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I132" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J132" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K132" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
@@ -8555,26 +8555,26 @@
         <v>55</v>
       </c>
       <c r="D133" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E133" s="5">
         <v>2015</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I133" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J133" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K133" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
@@ -8585,29 +8585,29 @@
         <v>111</v>
       </c>
       <c r="C134" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D134" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E134" s="5">
         <v>2009</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I134" t="s">
+        <v>717</v>
+      </c>
+      <c r="J134" t="s">
+        <v>718</v>
+      </c>
+      <c r="K134" t="s">
         <v>719</v>
-      </c>
-      <c r="J134" t="s">
-        <v>720</v>
-      </c>
-      <c r="K134" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
@@ -8627,7 +8627,7 @@
         <v>2000</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="4" t="s">
@@ -8654,17 +8654,17 @@
         <v>79</v>
       </c>
       <c r="D136" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E136" s="5">
         <v>2003</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I136" t="s">
         <v>144</v>
@@ -8673,7 +8673,7 @@
         <v>145</v>
       </c>
       <c r="K136" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
@@ -8684,29 +8684,29 @@
         <v>114</v>
       </c>
       <c r="C137" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D137" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E137" s="5">
         <v>1927</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I137" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J137" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
@@ -8717,29 +8717,29 @@
         <v>115</v>
       </c>
       <c r="C138" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D138" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E138" s="5">
         <v>2004</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I138" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J138" t="s">
         <v>145</v>
       </c>
       <c r="K138" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
@@ -8759,7 +8759,7 @@
         <v>1936</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="4" t="s">
@@ -8783,29 +8783,29 @@
         <v>117</v>
       </c>
       <c r="C140" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D140" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E140" s="5">
         <v>2001</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I140" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J140" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="K140" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
@@ -8816,29 +8816,29 @@
         <v>118</v>
       </c>
       <c r="C141" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D141" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E141" s="5">
         <v>1975</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I141" t="s">
+        <v>529</v>
+      </c>
+      <c r="J141" t="s">
+        <v>530</v>
+      </c>
+      <c r="K141" t="s">
         <v>531</v>
-      </c>
-      <c r="J141" t="s">
-        <v>532</v>
-      </c>
-      <c r="K141" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
@@ -8849,29 +8849,29 @@
         <v>119</v>
       </c>
       <c r="C142" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D142" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E142" s="5">
         <v>1939</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I142" t="s">
         <v>90</v>
       </c>
       <c r="J142" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K142" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
@@ -8882,29 +8882,29 @@
         <v>120</v>
       </c>
       <c r="C143" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D143" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E143" s="5">
         <v>2005</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I143" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J143" t="s">
         <v>185</v>
       </c>
       <c r="K143" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
@@ -8915,29 +8915,29 @@
         <v>121</v>
       </c>
       <c r="C144" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D144" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E144" s="5">
         <v>1988</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I144" t="s">
         <v>126</v>
       </c>
       <c r="J144" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K144" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
@@ -8951,17 +8951,17 @@
         <v>0</v>
       </c>
       <c r="D145" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E145" s="5">
         <v>1976</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I145" t="s">
         <v>21</v>
@@ -8970,7 +8970,7 @@
         <v>118</v>
       </c>
       <c r="K145" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
@@ -8984,26 +8984,26 @@
         <v>93</v>
       </c>
       <c r="D146" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E146" s="5">
         <v>2007</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I146" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J146" t="s">
         <v>265</v>
       </c>
       <c r="K146" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
@@ -9014,16 +9014,16 @@
         <v>124</v>
       </c>
       <c r="C147" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D147" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E147" s="5">
         <v>1959</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="4" t="s">
@@ -9036,7 +9036,7 @@
         <v>68</v>
       </c>
       <c r="K147" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
@@ -9050,26 +9050,26 @@
         <v>192</v>
       </c>
       <c r="D148" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E148" s="5">
         <v>2003</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I148" t="s">
+        <v>274</v>
+      </c>
+      <c r="J148" t="s">
+        <v>275</v>
+      </c>
+      <c r="K148" t="s">
         <v>276</v>
-      </c>
-      <c r="J148" t="s">
-        <v>277</v>
-      </c>
-      <c r="K148" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
@@ -9083,26 +9083,26 @@
         <v>93</v>
       </c>
       <c r="D149" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E149" s="5">
         <v>1954</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I149" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J149" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K149" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
@@ -9116,13 +9116,13 @@
         <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E150" s="5">
         <v>1984</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="4" t="s">
@@ -9132,10 +9132,10 @@
         <v>44</v>
       </c>
       <c r="J150" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K150" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
@@ -9155,7 +9155,7 @@
         <v>1968</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="4" t="s">
@@ -9188,7 +9188,7 @@
         <v>1975</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="4" t="s">
@@ -9212,23 +9212,23 @@
         <v>130</v>
       </c>
       <c r="C153" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D153" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E153" s="5">
         <v>2006</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I153" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J153" t="s">
         <v>96</v>
@@ -9251,7 +9251,7 @@
         <v>2019</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="4" t="s">
@@ -9278,26 +9278,26 @@
         <v>0</v>
       </c>
       <c r="D155" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E155" s="5">
         <v>1955</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I155" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J155" t="s">
         <v>127</v>
       </c>
       <c r="K155" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
@@ -9317,7 +9317,7 @@
         <v>1957</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="4" t="s">
@@ -9341,29 +9341,29 @@
         <v>134</v>
       </c>
       <c r="C157" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D157" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E157" s="5">
         <v>1966</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I157" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J157" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="K157" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
@@ -9377,26 +9377,26 @@
         <v>62</v>
       </c>
       <c r="D158" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E158" s="5">
         <v>2003</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G158" s="2"/>
       <c r="H158" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I158" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J158" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K158" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
@@ -9410,26 +9410,26 @@
         <v>101</v>
       </c>
       <c r="D159" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E159" s="5">
         <v>1986</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I159" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="J159" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K159" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
@@ -9440,16 +9440,16 @@
         <v>137</v>
       </c>
       <c r="C160" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D160" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E160" s="5">
         <v>1997</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="4" t="s">
@@ -9459,10 +9459,10 @@
         <v>126</v>
       </c>
       <c r="J160" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K160" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.35">
@@ -9476,26 +9476,26 @@
         <v>79</v>
       </c>
       <c r="D161" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E161" s="5">
         <v>2013</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I161" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J161" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K161" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.35">
@@ -9515,7 +9515,7 @@
         <v>1960</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="4" t="s">
@@ -9548,7 +9548,7 @@
         <v>1994</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="4" t="s">
@@ -9572,29 +9572,29 @@
         <v>141</v>
       </c>
       <c r="C164" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D164" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E164" s="5">
         <v>1980</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I164" t="s">
         <v>71</v>
       </c>
       <c r="J164" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K164" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.35">
@@ -9605,29 +9605,29 @@
         <v>142</v>
       </c>
       <c r="C165" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D165" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E165" s="5">
         <v>1988</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I165" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J165" t="s">
         <v>77</v>
       </c>
       <c r="K165" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.35">
@@ -9638,29 +9638,29 @@
         <v>143</v>
       </c>
       <c r="C166" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D166" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E166" s="5">
         <v>1985</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I166" t="s">
         <v>85</v>
       </c>
       <c r="J166" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K166" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.35">
@@ -9674,17 +9674,17 @@
         <v>79</v>
       </c>
       <c r="D167" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E167" s="5">
         <v>1950</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I167" t="s">
         <v>85</v>
@@ -9693,7 +9693,7 @@
         <v>150</v>
       </c>
       <c r="K167" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.35">
@@ -9704,29 +9704,29 @@
         <v>145</v>
       </c>
       <c r="C168" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D168" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E168" s="5">
         <v>2007</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I168" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="J168" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K168" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.35">
@@ -9746,7 +9746,7 @@
         <v>1954</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="4" t="s">
@@ -9770,20 +9770,20 @@
         <v>147</v>
       </c>
       <c r="C170" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D170" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E170" s="5">
         <v>1940</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I170" t="s">
         <v>130</v>
@@ -9792,7 +9792,7 @@
         <v>91</v>
       </c>
       <c r="K170" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.35">
@@ -9806,26 +9806,26 @@
         <v>0</v>
       </c>
       <c r="D171" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E171" s="5">
         <v>2000</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I171" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J171" t="s">
         <v>173</v>
       </c>
       <c r="K171" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.35">
@@ -9839,13 +9839,13 @@
         <v>93</v>
       </c>
       <c r="D172" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E172" s="5">
         <v>1992</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="4" t="s">
@@ -9855,10 +9855,10 @@
         <v>35</v>
       </c>
       <c r="J172" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K172" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.35">
@@ -9869,29 +9869,29 @@
         <v>150</v>
       </c>
       <c r="C173" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D173" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E173" s="5">
         <v>1976</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I173" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J173" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K173" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.35">
@@ -9902,29 +9902,29 @@
         <v>151</v>
       </c>
       <c r="C174" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D174" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E174" s="5">
         <v>2015</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I174" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="J174" t="s">
         <v>96</v>
       </c>
       <c r="K174" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.35">
@@ -9935,29 +9935,29 @@
         <v>152</v>
       </c>
       <c r="C175" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D175" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E175" s="5">
         <v>2013</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G175" s="1"/>
       <c r="H175" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I175" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="J175" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K175" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.35">
@@ -9977,7 +9977,7 @@
         <v>1998</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="4" t="s">
@@ -10004,26 +10004,26 @@
         <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E177" s="5">
         <v>1983</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I177" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J177" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K177" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.35">
@@ -10043,7 +10043,7 @@
         <v>1993</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="4" t="s">
@@ -10076,7 +10076,7 @@
         <v>1995</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G179" s="1"/>
       <c r="H179" s="4" t="s">
@@ -10109,7 +10109,7 @@
         <v>1954</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="4" t="s">
@@ -10133,29 +10133,29 @@
         <v>158</v>
       </c>
       <c r="C181" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D181" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E181" s="5">
         <v>1924</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I181" t="s">
+        <v>688</v>
+      </c>
+      <c r="J181" t="s">
+        <v>689</v>
+      </c>
+      <c r="K181" t="s">
         <v>690</v>
-      </c>
-      <c r="J181" t="s">
-        <v>691</v>
-      </c>
-      <c r="K181" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.35">
@@ -10169,26 +10169,26 @@
         <v>205</v>
       </c>
       <c r="D182" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E182" s="5">
         <v>2010</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G182" s="1"/>
       <c r="H182" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I182" t="s">
         <v>71</v>
       </c>
       <c r="J182" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K182" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.35">
@@ -10199,29 +10199,29 @@
         <v>160</v>
       </c>
       <c r="C183" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D183" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E183" s="5">
         <v>1952</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I183" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J183" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K183" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.35">
@@ -10232,29 +10232,29 @@
         <v>161</v>
       </c>
       <c r="C184" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D184" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E184" s="5">
         <v>2000</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I184" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J184" t="s">
         <v>173</v>
       </c>
       <c r="K184" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.35">
@@ -10265,20 +10265,20 @@
         <v>162</v>
       </c>
       <c r="C185" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D185" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E185" s="5">
         <v>1959</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G185" s="1"/>
       <c r="H185" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I185" t="s">
         <v>242</v>
@@ -10287,7 +10287,7 @@
         <v>118</v>
       </c>
       <c r="K185" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.35">
@@ -10301,26 +10301,26 @@
         <v>69</v>
       </c>
       <c r="D186" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E186" s="5">
         <v>2015</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I186" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J186" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K186" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.35">
@@ -10331,29 +10331,29 @@
         <v>164</v>
       </c>
       <c r="C187" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D187" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E187" s="5">
         <v>1986</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G187" s="1"/>
       <c r="H187" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I187" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J187" t="s">
         <v>199</v>
       </c>
       <c r="K187" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.35">
@@ -10367,17 +10367,17 @@
         <v>62</v>
       </c>
       <c r="D188" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E188" s="5">
         <v>1999</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G188" s="2"/>
       <c r="H188" s="4" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="I188" t="s">
         <v>117</v>
@@ -10386,7 +10386,7 @@
         <v>68</v>
       </c>
       <c r="K188" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.35">
@@ -10400,17 +10400,17 @@
         <v>62</v>
       </c>
       <c r="D189" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E189" s="5">
         <v>2002</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G189" s="2"/>
       <c r="H189" s="4" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="I189" t="s">
         <v>117</v>
@@ -10419,7 +10419,7 @@
         <v>4</v>
       </c>
       <c r="K189" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.35">
@@ -10433,26 +10433,26 @@
         <v>62</v>
       </c>
       <c r="D190" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E190" s="5">
         <v>2005</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G190" s="2"/>
       <c r="H190" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I190" t="s">
         <v>117</v>
       </c>
       <c r="J190" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K190" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.35">
@@ -10466,13 +10466,13 @@
         <v>62</v>
       </c>
       <c r="D191" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E191" s="5">
         <v>1977</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G191" s="2"/>
       <c r="H191" s="4" t="s">
@@ -10505,7 +10505,7 @@
         <v>1980</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G192" s="2"/>
       <c r="H192" s="4" t="s">
@@ -10518,7 +10518,7 @@
         <v>65</v>
       </c>
       <c r="K192" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.35">
@@ -10532,26 +10532,26 @@
         <v>62</v>
       </c>
       <c r="D193" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E193" s="5">
         <v>1983</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G193" s="2"/>
       <c r="H193" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I193" t="s">
+        <v>339</v>
+      </c>
+      <c r="J193" t="s">
+        <v>340</v>
+      </c>
+      <c r="K193" t="s">
         <v>341</v>
-      </c>
-      <c r="J193" t="s">
-        <v>342</v>
-      </c>
-      <c r="K193" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.35">
@@ -10571,7 +10571,7 @@
         <v>1950</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G194" s="1"/>
       <c r="H194" s="4" t="s">
@@ -10598,26 +10598,26 @@
         <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E195" s="5">
         <v>1976</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G195" s="1"/>
       <c r="H195" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I195" t="s">
         <v>71</v>
       </c>
       <c r="J195" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K195" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.35">
@@ -10631,26 +10631,26 @@
         <v>66</v>
       </c>
       <c r="D196" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E196" s="5">
         <v>1984</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G196" s="2"/>
       <c r="H196" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I196" t="s">
         <v>122</v>
       </c>
       <c r="J196" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K196" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.35">
@@ -10670,7 +10670,7 @@
         <v>1991</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G197" s="2"/>
       <c r="H197" s="4" t="s">
@@ -10683,7 +10683,7 @@
         <v>123</v>
       </c>
       <c r="K197" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.35">
@@ -10697,26 +10697,26 @@
         <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E198" s="5">
         <v>1959</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G198" s="1"/>
       <c r="H198" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I198" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="J198" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K198" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.35">
@@ -10730,17 +10730,17 @@
         <v>105</v>
       </c>
       <c r="D199" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E199" s="5">
         <v>1960</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G199" s="1"/>
       <c r="H199" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I199" t="s">
         <v>242</v>
@@ -10749,7 +10749,7 @@
         <v>127</v>
       </c>
       <c r="K199" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.35">
@@ -10763,26 +10763,26 @@
         <v>101</v>
       </c>
       <c r="D200" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E200" s="5">
         <v>1966</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G200" s="1"/>
       <c r="H200" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I200" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="J200" t="s">
         <v>118</v>
       </c>
       <c r="K200" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.35">
@@ -10796,26 +10796,26 @@
         <v>170</v>
       </c>
       <c r="D201" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E201" s="5">
         <v>1946</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G201" s="1"/>
       <c r="H201" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I201" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J201" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K201" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.35">
@@ -10826,29 +10826,29 @@
         <v>172</v>
       </c>
       <c r="C202" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D202" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E202" s="5">
         <v>1998</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G202" s="1"/>
       <c r="H202" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I202" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J202" t="s">
         <v>210</v>
       </c>
       <c r="K202" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.35">
@@ -10862,26 +10862,26 @@
         <v>101</v>
       </c>
       <c r="D203" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E203" s="5">
         <v>1981</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G203" s="1"/>
       <c r="H203" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I203" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J203" t="s">
         <v>258</v>
       </c>
       <c r="K203" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.35">
@@ -10892,29 +10892,29 @@
         <v>174</v>
       </c>
       <c r="C204" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D204" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E204" s="5">
         <v>1957</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G204" s="1"/>
       <c r="H204" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I204" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J204" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K204" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.35">
@@ -10925,7 +10925,7 @@
         <v>175</v>
       </c>
       <c r="C205" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D205" t="s">
         <v>10</v>
@@ -10934,7 +10934,7 @@
         <v>2008</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G205" s="2"/>
       <c r="H205" s="4" t="s">
@@ -10958,16 +10958,16 @@
         <v>175</v>
       </c>
       <c r="C206" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D206" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E206" s="5">
         <v>2012</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G206" s="2"/>
       <c r="H206" s="4" t="s">
@@ -10977,10 +10977,10 @@
         <v>12</v>
       </c>
       <c r="J206" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K206" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.35">
@@ -10994,26 +10994,26 @@
         <v>101</v>
       </c>
       <c r="D207" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E207" s="5">
         <v>1978</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G207" s="1"/>
       <c r="H207" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I207" t="s">
+        <v>666</v>
+      </c>
+      <c r="J207" t="s">
+        <v>667</v>
+      </c>
+      <c r="K207" t="s">
         <v>668</v>
-      </c>
-      <c r="J207" t="s">
-        <v>669</v>
-      </c>
-      <c r="K207" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.35">
@@ -11033,7 +11033,7 @@
         <v>2006</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G208" s="1"/>
       <c r="H208" s="4" t="s">
@@ -11057,26 +11057,26 @@
         <v>178</v>
       </c>
       <c r="C209" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D209" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E209" s="5">
         <v>1980</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J209" t="s">
         <v>65</v>
       </c>
       <c r="K209" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.35">
@@ -11087,29 +11087,29 @@
         <v>179</v>
       </c>
       <c r="C210" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D210" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E210" s="5">
         <v>1973</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I210" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="J210" t="s">
         <v>265</v>
       </c>
       <c r="K210" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.35">
@@ -11120,29 +11120,29 @@
         <v>180</v>
       </c>
       <c r="C211" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D211" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E211" s="5">
         <v>2020</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G211" s="1"/>
       <c r="H211" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I211" t="s">
+        <v>483</v>
+      </c>
+      <c r="J211" t="s">
+        <v>484</v>
+      </c>
+      <c r="K211" t="s">
         <v>485</v>
-      </c>
-      <c r="J211" t="s">
-        <v>486</v>
-      </c>
-      <c r="K211" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.35">
@@ -11153,29 +11153,29 @@
         <v>181</v>
       </c>
       <c r="C212" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D212" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E212" s="5">
         <v>1926</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G212" s="1"/>
       <c r="H212" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I212" t="s">
+        <v>651</v>
+      </c>
+      <c r="J212" t="s">
+        <v>652</v>
+      </c>
+      <c r="K212" t="s">
         <v>653</v>
-      </c>
-      <c r="J212" t="s">
-        <v>654</v>
-      </c>
-      <c r="K212" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.35">
@@ -11186,7 +11186,7 @@
         <v>182</v>
       </c>
       <c r="C213" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D213" t="s">
         <v>6</v>
@@ -11195,7 +11195,7 @@
         <v>1972</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G213" s="2"/>
       <c r="H213" s="4" t="s">
@@ -11208,7 +11208,7 @@
         <v>8</v>
       </c>
       <c r="K213" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.35">
@@ -11219,7 +11219,7 @@
         <v>182</v>
       </c>
       <c r="C214" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D214" t="s">
         <v>16</v>
@@ -11228,7 +11228,7 @@
         <v>1974</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G214" s="2"/>
       <c r="H214" s="4" t="s">
@@ -11252,29 +11252,29 @@
         <v>182</v>
       </c>
       <c r="C215" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D215" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E215" s="5">
         <v>1990</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G215" s="2"/>
       <c r="H215" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I215" t="s">
         <v>7</v>
       </c>
       <c r="J215" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K215" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.35">
@@ -11285,29 +11285,29 @@
         <v>183</v>
       </c>
       <c r="C216" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D216" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E216" s="5">
         <v>1925</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G216" s="1"/>
       <c r="H216" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I216" t="s">
         <v>189</v>
       </c>
       <c r="J216" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K216" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.35">
@@ -11327,7 +11327,7 @@
         <v>1966</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G217" s="1"/>
       <c r="H217" s="4" t="s">
@@ -11351,29 +11351,29 @@
         <v>185</v>
       </c>
       <c r="C218" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D218" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E218" s="5">
         <v>2014</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G218" s="1"/>
       <c r="H218" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I218" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="J218" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K218" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.35">
@@ -11387,26 +11387,26 @@
         <v>0</v>
       </c>
       <c r="D219" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E219" s="5">
         <v>1940</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G219" s="1"/>
       <c r="H219" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I219" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="J219" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K219" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.35">
@@ -11426,7 +11426,7 @@
         <v>1940</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G220" s="1"/>
       <c r="H220" s="4" t="s">
@@ -11450,29 +11450,29 @@
         <v>188</v>
       </c>
       <c r="C221" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D221" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E221" s="5">
         <v>1963</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G221" s="1"/>
       <c r="H221" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I221" t="s">
+        <v>550</v>
+      </c>
+      <c r="J221" t="s">
+        <v>551</v>
+      </c>
+      <c r="K221" t="s">
         <v>552</v>
-      </c>
-      <c r="J221" t="s">
-        <v>553</v>
-      </c>
-      <c r="K221" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.35">
@@ -11492,7 +11492,7 @@
         <v>1999</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G222" s="1"/>
       <c r="H222" s="4" t="s">
@@ -11516,29 +11516,29 @@
         <v>190</v>
       </c>
       <c r="C223" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D223" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E223" s="5">
         <v>2016</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G223" s="1"/>
       <c r="H223" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I223" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J223" t="s">
         <v>72</v>
       </c>
       <c r="K223" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.35">
@@ -11552,26 +11552,26 @@
         <v>0</v>
       </c>
       <c r="D224" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E224" s="5">
         <v>2011</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G224" s="1"/>
       <c r="H224" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I224" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="J224" t="s">
         <v>249</v>
       </c>
       <c r="K224" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.35">
@@ -11585,26 +11585,26 @@
         <v>0</v>
       </c>
       <c r="D225" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E225" s="5">
         <v>2012</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G225" s="1"/>
       <c r="H225" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I225" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J225" t="s">
         <v>226</v>
       </c>
       <c r="K225" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.35">
@@ -11615,29 +11615,29 @@
         <v>193</v>
       </c>
       <c r="C226" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D226" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E226" s="5">
         <v>2004</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G226" s="1"/>
       <c r="H226" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I226" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="J226" t="s">
         <v>226</v>
       </c>
       <c r="K226" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.35">
@@ -11657,7 +11657,7 @@
         <v>2011</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G227" s="1"/>
       <c r="H227" s="4" t="s">
@@ -11681,29 +11681,29 @@
         <v>195</v>
       </c>
       <c r="C228" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D228" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E228" s="5">
         <v>1921</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G228" s="1"/>
       <c r="H228" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I228" t="s">
         <v>189</v>
       </c>
       <c r="J228" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K228" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.35">
@@ -11723,7 +11723,7 @@
         <v>1994</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G229" s="1"/>
       <c r="H229" s="4" t="s">
@@ -11756,7 +11756,7 @@
         <v>2006</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G230" s="1"/>
       <c r="H230" s="4" t="s">
@@ -11789,7 +11789,7 @@
         <v>2001</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G231" s="1"/>
       <c r="H231" s="4" t="s">
@@ -11822,7 +11822,7 @@
         <v>2003</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G232" s="1"/>
       <c r="H232" s="4" t="s">
@@ -11855,7 +11855,7 @@
         <v>2002</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G233" s="1"/>
       <c r="H233" s="4" t="s">
@@ -11888,20 +11888,20 @@
         <v>1999</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G234" s="2"/>
       <c r="H234" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I234" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="J234" t="s">
         <v>68</v>
       </c>
       <c r="K234" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.35">
@@ -11912,29 +11912,29 @@
         <v>200</v>
       </c>
       <c r="C235" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D235" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E235" s="5">
         <v>1928</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G235" s="1"/>
       <c r="H235" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I235" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="J235" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K235" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.35">
@@ -11954,7 +11954,7 @@
         <v>2002</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G236" s="1"/>
       <c r="H236" s="4" t="s">
@@ -11987,7 +11987,7 @@
         <v>2006</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G237" s="1"/>
       <c r="H237" s="4" t="s">
@@ -12011,29 +12011,29 @@
         <v>203</v>
       </c>
       <c r="C238" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D238" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E238" s="5">
         <v>2009</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G238" s="1"/>
       <c r="H238" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I238" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J238" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K238" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.35">
@@ -12044,29 +12044,29 @@
         <v>204</v>
       </c>
       <c r="C239" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D239" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E239" s="5">
         <v>1957</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G239" s="1"/>
       <c r="H239" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I239" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J239" t="s">
         <v>22</v>
       </c>
       <c r="K239" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.35">
@@ -12086,7 +12086,7 @@
         <v>1994</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G240" s="1"/>
       <c r="H240" s="4" t="s">
@@ -12119,7 +12119,7 @@
         <v>1980</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G241" s="1"/>
       <c r="H241" s="4" t="s">
@@ -12152,7 +12152,7 @@
         <v>1991</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G242" s="1"/>
       <c r="H242" s="4" t="s">
@@ -12179,26 +12179,26 @@
         <v>236</v>
       </c>
       <c r="D243" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E243" s="5">
         <v>1999</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G243" s="1"/>
       <c r="H243" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I243" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J243" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K243" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.35">
@@ -12209,29 +12209,29 @@
         <v>209</v>
       </c>
       <c r="C244" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D244" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E244" s="5">
         <v>1965</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G244" s="1"/>
       <c r="H244" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I244" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="J244" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K244" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.35">
@@ -12242,29 +12242,29 @@
         <v>210</v>
       </c>
       <c r="C245" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D245" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E245" s="5">
         <v>1973</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G245" s="1"/>
       <c r="H245" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I245" t="s">
+        <v>409</v>
+      </c>
+      <c r="J245" t="s">
+        <v>410</v>
+      </c>
+      <c r="K245" t="s">
         <v>411</v>
-      </c>
-      <c r="J245" t="s">
-        <v>412</v>
-      </c>
-      <c r="K245" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.35">
@@ -12275,29 +12275,29 @@
         <v>211</v>
       </c>
       <c r="C246" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D246" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E246" s="5">
         <v>1982</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G246" s="1"/>
       <c r="H246" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I246" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J246" t="s">
         <v>131</v>
       </c>
       <c r="K246" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.35">
@@ -12308,29 +12308,29 @@
         <v>212</v>
       </c>
       <c r="C247" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D247" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E247" s="5">
         <v>1949</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G247" s="1"/>
       <c r="H247" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I247" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J247" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K247" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.35">
@@ -12341,29 +12341,29 @@
         <v>213</v>
       </c>
       <c r="C248" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D248" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E248" s="5">
         <v>1948</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G248" s="1"/>
       <c r="H248" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I248" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J248" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K248" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.35">
@@ -12374,29 +12374,29 @@
         <v>214</v>
       </c>
       <c r="C249" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D249" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E249" s="5">
         <v>1998</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G249" s="1"/>
       <c r="H249" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I249" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J249" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K249" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.35">
@@ -12416,7 +12416,7 @@
         <v>1995</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G250" s="1"/>
       <c r="H250" s="4" t="s">
@@ -12440,29 +12440,29 @@
         <v>216</v>
       </c>
       <c r="C251" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D251" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E251" s="5">
         <v>1953</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G251" s="1"/>
       <c r="H251" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I251" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="J251" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K251" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.35">
@@ -12473,29 +12473,29 @@
         <v>217</v>
       </c>
       <c r="C252" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D252" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E252" s="5">
         <v>1939</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G252" s="1"/>
       <c r="H252" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I252" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J252" t="s">
         <v>173</v>
       </c>
       <c r="K252" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.35">
@@ -12506,29 +12506,29 @@
         <v>218</v>
       </c>
       <c r="C253" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D253" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E253" s="5">
         <v>2013</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G253" s="1"/>
       <c r="H253" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I253" t="s">
         <v>71</v>
       </c>
       <c r="J253" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K253" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.35">
@@ -12542,26 +12542,26 @@
         <v>0</v>
       </c>
       <c r="D254" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E254" s="5">
         <v>2007</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G254" s="1"/>
       <c r="H254" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I254" t="s">
+        <v>512</v>
+      </c>
+      <c r="J254" t="s">
+        <v>513</v>
+      </c>
+      <c r="K254" t="s">
         <v>514</v>
-      </c>
-      <c r="J254" t="s">
-        <v>515</v>
-      </c>
-      <c r="K254" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.35">
@@ -12572,29 +12572,29 @@
         <v>220</v>
       </c>
       <c r="C255" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D255" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E255" s="5">
         <v>2017</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G255" s="1"/>
       <c r="H255" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I255" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J255" t="s">
         <v>226</v>
       </c>
       <c r="K255" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.35">
@@ -12605,29 +12605,29 @@
         <v>221</v>
       </c>
       <c r="C256" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D256" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E256" s="5">
         <v>1942</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G256" s="1"/>
       <c r="H256" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I256" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="J256" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K256" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.35">
@@ -12641,26 +12641,26 @@
         <v>9</v>
       </c>
       <c r="D257" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E257" s="5">
         <v>1962</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G257" s="1"/>
       <c r="H257" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I257" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J257" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K257" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.35">
@@ -12674,26 +12674,26 @@
         <v>0</v>
       </c>
       <c r="D258" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E258" s="5">
         <v>1953</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G258" s="1"/>
       <c r="H258" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I258" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="J258" t="s">
         <v>68</v>
       </c>
       <c r="K258" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.35">
@@ -12713,7 +12713,7 @@
         <v>2022</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G259" s="1"/>
       <c r="H259" s="4" t="s">
@@ -12737,29 +12737,29 @@
         <v>225</v>
       </c>
       <c r="C260" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D260" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E260" s="5">
         <v>1995</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G260" s="2"/>
       <c r="H260" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I260" t="s">
+        <v>289</v>
+      </c>
+      <c r="J260" t="s">
+        <v>290</v>
+      </c>
+      <c r="K260" t="s">
         <v>291</v>
-      </c>
-      <c r="J260" t="s">
-        <v>292</v>
-      </c>
-      <c r="K260" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.35">
@@ -12770,29 +12770,29 @@
         <v>225</v>
       </c>
       <c r="C261" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D261" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E261" s="5">
         <v>1999</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G261" s="2"/>
       <c r="H261" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I261" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J261" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="K261" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.35">
@@ -12803,29 +12803,29 @@
         <v>225</v>
       </c>
       <c r="C262" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D262" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E262" s="5">
         <v>2010</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G262" s="2"/>
       <c r="H262" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I262" t="s">
+        <v>319</v>
+      </c>
+      <c r="J262" t="s">
+        <v>320</v>
+      </c>
+      <c r="K262" t="s">
         <v>321</v>
-      </c>
-      <c r="J262" t="s">
-        <v>322</v>
-      </c>
-      <c r="K262" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.35">
@@ -12836,29 +12836,29 @@
         <v>225</v>
       </c>
       <c r="C263" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D263" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E263" s="5">
         <v>2019</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G263" s="2"/>
       <c r="H263" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="I263" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="J263" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K263" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.35">
@@ -12872,26 +12872,26 @@
         <v>0</v>
       </c>
       <c r="D264" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E264" s="5">
         <v>1996</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G264" s="1"/>
       <c r="H264" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I264" t="s">
+        <v>603</v>
+      </c>
+      <c r="J264" t="s">
+        <v>604</v>
+      </c>
+      <c r="K264" t="s">
         <v>605</v>
-      </c>
-      <c r="J264" t="s">
-        <v>606</v>
-      </c>
-      <c r="K264" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.35">
@@ -12905,26 +12905,26 @@
         <v>228</v>
       </c>
       <c r="D265" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E265" s="5">
         <v>1992</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G265" s="1"/>
       <c r="H265" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I265" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J265" t="s">
         <v>91</v>
       </c>
       <c r="K265" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.35">
@@ -12935,29 +12935,29 @@
         <v>228</v>
       </c>
       <c r="C266" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D266" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E266" s="5">
         <v>2009</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G266" s="1"/>
       <c r="H266" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I266" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J266" t="s">
         <v>22</v>
       </c>
       <c r="K266" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.35">
@@ -12968,29 +12968,29 @@
         <v>229</v>
       </c>
       <c r="C267" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D267" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E267" s="5">
         <v>2005</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G267" s="1"/>
       <c r="H267" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I267" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J267" t="s">
         <v>145</v>
       </c>
       <c r="K267" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.35">
@@ -13001,29 +13001,29 @@
         <v>230</v>
       </c>
       <c r="C268" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D268" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E268" s="5">
         <v>1958</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G268" s="1"/>
       <c r="H268" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I268" t="s">
         <v>130</v>
       </c>
       <c r="J268" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K268" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.35">
@@ -13043,7 +13043,7 @@
         <v>2008</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G269" s="1"/>
       <c r="H269" s="4" t="s">
@@ -13067,26 +13067,26 @@
         <v>232</v>
       </c>
       <c r="C270" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D270" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E270" s="5">
         <v>2011</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G270" s="1"/>
       <c r="H270" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I270" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J270" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.35">
@@ -13106,7 +13106,7 @@
         <v>2014</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G271" s="1"/>
       <c r="H271" s="4" t="s">
@@ -13133,26 +13133,26 @@
         <v>46</v>
       </c>
       <c r="D272" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E272" s="5">
         <v>1957</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G272" s="1"/>
       <c r="H272" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I272" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J272" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K272" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.35">
@@ -13166,26 +13166,26 @@
         <v>142</v>
       </c>
       <c r="D273" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E273" s="5">
         <v>2014</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G273" s="1"/>
       <c r="H273" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I273" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J273" t="s">
         <v>265</v>
       </c>
       <c r="K273" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.35">
@@ -13205,7 +13205,7 @@
         <v>1957</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G274" s="1"/>
       <c r="H274" s="4" t="s">
@@ -13229,20 +13229,20 @@
         <v>237</v>
       </c>
       <c r="C275" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D275" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E275" s="5">
         <v>1961</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G275" s="1"/>
       <c r="H275" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I275" t="s">
         <v>85</v>
@@ -13251,7 +13251,7 @@
         <v>140</v>
       </c>
       <c r="K275" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.35">
@@ -13262,29 +13262,29 @@
         <v>238</v>
       </c>
       <c r="C276" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D276" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E276" s="5">
         <v>2016</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G276" s="1"/>
       <c r="H276" s="4" t="s">
         <v>261</v>
       </c>
       <c r="I276" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J276" t="s">
         <v>162</v>
       </c>
       <c r="K276" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.35">
@@ -13295,28 +13295,28 @@
         <v>239</v>
       </c>
       <c r="C277" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D277" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E277">
         <v>2018</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H277" s="4" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="I277" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="J277" t="s">
         <v>81</v>
       </c>
       <c r="K277" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.35">
@@ -13327,28 +13327,28 @@
         <v>240</v>
       </c>
       <c r="C278" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D278" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E278">
         <v>2019</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H278" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I278" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="J278" t="s">
         <v>131</v>
       </c>
       <c r="K278" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.35">
@@ -13359,28 +13359,28 @@
         <v>241</v>
       </c>
       <c r="C279" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D279" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E279">
         <v>2019</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H279" s="4" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="I279" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="J279" t="s">
         <v>57</v>
       </c>
       <c r="K279" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.35">
@@ -13391,28 +13391,28 @@
         <v>242</v>
       </c>
       <c r="C280" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D280" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E280">
         <v>2017</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H280" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I280" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="J280" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="K280" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.35">
@@ -13423,28 +13423,28 @@
         <v>243</v>
       </c>
       <c r="C281" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D281" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E281">
         <v>2017</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H281" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I281" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="J281" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K281" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.35">
@@ -13458,25 +13458,25 @@
         <v>46</v>
       </c>
       <c r="D282" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E282">
         <v>2016</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H282" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I282" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="J282" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K282" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.35">
@@ -13487,28 +13487,28 @@
         <v>245</v>
       </c>
       <c r="C283" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D283" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E283">
         <v>2011</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H283" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I283" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="J283" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K283" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.35">
@@ -13519,28 +13519,28 @@
         <v>246</v>
       </c>
       <c r="C284" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D284" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E284">
         <v>2014</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H284" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="I284" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="J284" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K284" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.35">
@@ -13551,28 +13551,28 @@
         <v>247</v>
       </c>
       <c r="C285" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D285" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E285">
         <v>2003</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H285" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="I285" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="J285" t="s">
         <v>173</v>
       </c>
       <c r="K285" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.35">
@@ -13586,25 +13586,25 @@
         <v>46</v>
       </c>
       <c r="D286" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E286">
         <v>2000</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H286" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I286" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="J286" t="s">
         <v>234</v>
       </c>
       <c r="K286" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.35">
@@ -13615,28 +13615,28 @@
         <v>249</v>
       </c>
       <c r="C287" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D287" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E287">
         <v>1985</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H287" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I287" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="J287" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K287" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.35">
@@ -13647,28 +13647,28 @@
         <v>250</v>
       </c>
       <c r="C288" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D288" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E288">
         <v>2001</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H288" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I288" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="J288" t="s">
         <v>218</v>
       </c>
       <c r="K288" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.35">
@@ -13679,28 +13679,28 @@
         <v>251</v>
       </c>
       <c r="C289" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D289" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E289">
         <v>2001</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H289" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I289" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="J289" t="s">
         <v>222</v>
       </c>
       <c r="K289" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.35">
@@ -13711,28 +13711,28 @@
         <v>252</v>
       </c>
       <c r="C290" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D290" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E290">
         <v>2023</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H290" s="4" t="s">
         <v>188</v>
       </c>
       <c r="I290" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="J290" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K290" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.35">
@@ -13743,28 +13743,28 @@
         <v>253</v>
       </c>
       <c r="C291" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D291" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E291">
         <v>2023</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H291" s="4" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="I291" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="J291" t="s">
         <v>81</v>
       </c>
       <c r="K291" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.35">
@@ -13775,28 +13775,28 @@
         <v>254</v>
       </c>
       <c r="C292" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D292" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E292">
         <v>1988</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H292" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I292" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="J292" t="s">
         <v>65</v>
       </c>
       <c r="K292" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.35">
@@ -13807,28 +13807,28 @@
         <v>255</v>
       </c>
       <c r="C293" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D293" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E293">
         <v>1968</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I293" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="J293" t="s">
         <v>22</v>
       </c>
       <c r="K293" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.35">
@@ -13839,28 +13839,28 @@
         <v>256</v>
       </c>
       <c r="C294" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D294" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E294">
         <v>1981</v>
       </c>
       <c r="F294" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H294" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="H294" s="4" t="s">
-        <v>868</v>
-      </c>
       <c r="I294" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="J294" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="K294" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.35">
@@ -13871,28 +13871,28 @@
         <v>257</v>
       </c>
       <c r="C295" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D295" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E295">
         <v>1990</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H295" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I295" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="J295" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K295" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.35">
@@ -13903,28 +13903,28 @@
         <v>258</v>
       </c>
       <c r="C296" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D296" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E296">
         <v>1976</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H296" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I296" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J296" t="s">
         <v>234</v>
       </c>
       <c r="K296" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.35">
@@ -13935,28 +13935,28 @@
         <v>259</v>
       </c>
       <c r="C297" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D297" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E297">
         <v>1975</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H297" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I297" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="J297" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K297" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.35">
@@ -13967,28 +13967,28 @@
         <v>260</v>
       </c>
       <c r="C298" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D298" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E298">
         <v>2021</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H298" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I298" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J298" t="s">
         <v>154</v>
       </c>
       <c r="K298" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.35">
@@ -13999,28 +13999,28 @@
         <v>260</v>
       </c>
       <c r="C299" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D299" t="s">
         <v>1027</v>
-      </c>
-      <c r="D299" t="s">
-        <v>1029</v>
       </c>
       <c r="E299">
         <v>2024</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H299" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I299" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J299" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="K299" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.35">
@@ -14031,28 +14031,28 @@
         <v>261</v>
       </c>
       <c r="C300" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D300" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E300">
         <v>2022</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H300" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I300" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="J300" t="s">
         <v>53</v>
       </c>
       <c r="K300" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.35">
@@ -14063,28 +14063,28 @@
         <v>262</v>
       </c>
       <c r="C301" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D301" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E301">
         <v>2023</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H301" s="4" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="I301" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="J301" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K301" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.35">
@@ -14098,25 +14098,25 @@
         <v>247</v>
       </c>
       <c r="D302" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E302">
         <v>2023</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H302" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I302" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="J302" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K302" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.35">
@@ -14127,28 +14127,28 @@
         <v>264</v>
       </c>
       <c r="C303" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D303" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E303">
         <v>2023</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H303" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I303" t="s">
         <v>71</v>
       </c>
       <c r="J303" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="K303" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.35">
@@ -14159,28 +14159,28 @@
         <v>265</v>
       </c>
       <c r="C304" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D304" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E304">
         <v>2022</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H304" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="I304" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J304" t="s">
         <v>210</v>
       </c>
       <c r="K304" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.35">
@@ -14191,28 +14191,28 @@
         <v>266</v>
       </c>
       <c r="C305" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D305" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E305">
         <v>2022</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H305" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I305" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J305" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K305" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.35">
@@ -14223,28 +14223,28 @@
         <v>267</v>
       </c>
       <c r="C306" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D306" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E306" s="5">
         <v>1990</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H306" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="I306" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="J306" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K306" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.35">
@@ -14255,28 +14255,28 @@
         <v>267</v>
       </c>
       <c r="C307" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D307" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E307" s="5">
         <v>1992</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H307" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I307" t="s">
+        <v>904</v>
+      </c>
+      <c r="J307" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K307" t="s">
         <v>1084</v>
-      </c>
-      <c r="I307" t="s">
-        <v>906</v>
-      </c>
-      <c r="J307" t="s">
-        <v>1085</v>
-      </c>
-      <c r="K307" t="s">
-        <v>1086</v>
       </c>
     </row>
   </sheetData>

--- a/docs/IMDB Top 250 Movies.xlsx
+++ b/docs/IMDB Top 250 Movies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\react\movie-bucketlist\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DA32CF-D650-427C-BAB3-437527AA1B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0728A3-D9E4-46ED-B014-6FE8DBA3F90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{346207D0-9AA0-42DB-A453-BB1282A9E7EA}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="1089">
   <si>
     <t>Drama</t>
   </si>
@@ -3277,10 +3277,16 @@
     <t>One year after Kevin McCallister was left home alone and had to defeat a pair of bumbling burglars, he accidentally finds himself stranded in New York City - and the same criminals are not far behind.</t>
   </si>
   <si>
-    <t>Dr. Strangelove</t>
-  </si>
-  <si>
-    <t>Alternative title: How I Learned to Stop Worrying and Love the Bomb. An insane American general orders a bombing attack on the Soviet Union, triggering a path to nuclear holocaust that a war room full of politicians and generals frantically tries to stop.</t>
+    <t>An insane American general orders a bombing attack on the Soviet Union, triggering a path to nuclear holocaust that a war room full of politicians and generals frantically tries to stop.</t>
+  </si>
+  <si>
+    <t>Dr. Strangelove or How I Learned to Stop Worrying and Love the Bomb</t>
+  </si>
+  <si>
+    <t>Ofelia moves with her mother to her stepfather's house. At night, a fairy leads her to a faun who informs her that she is a princess and she needs to participate in three tasks to prove her royalty.</t>
+  </si>
+  <si>
+    <t>Ex-Marine Tommy returns home and convinces his father to train him for a mixed martial arts tournament. However, there is more at stake than the prize money as he will be fighting against his brother.</t>
   </si>
 </sst>
 </file>
@@ -4171,8 +4177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B372DD-848A-447C-BEE1-0C4F8EF77C63}">
   <dimension ref="A1:K307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="N73" sqref="N73"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K271" sqref="K271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6179,7 +6185,7 @@
         <v>267</v>
       </c>
       <c r="D61" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="E61" s="5">
         <v>1964</v>
@@ -6198,7 +6204,7 @@
         <v>268</v>
       </c>
       <c r="K61" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
@@ -9233,6 +9239,9 @@
       <c r="J153" t="s">
         <v>96</v>
       </c>
+      <c r="K153" t="s">
+        <v>1087</v>
+      </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154">
@@ -13087,6 +13096,9 @@
       </c>
       <c r="J270" t="s">
         <v>468</v>
+      </c>
+      <c r="K270" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.35">

--- a/docs/IMDB Top 250 Movies.xlsx
+++ b/docs/IMDB Top 250 Movies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\react\movie-bucketlist\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\react\movie-bucketlist\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0728A3-D9E4-46ED-B014-6FE8DBA3F90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC854957-8508-4C0D-85E8-F647A4E95CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{346207D0-9AA0-42DB-A453-BB1282A9E7EA}"/>
   </bookViews>
@@ -4177,8 +4177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B372DD-848A-447C-BEE1-0C4F8EF77C63}">
   <dimension ref="A1:K307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K271" sqref="K271"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W96" sqref="W96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7010,26 +7010,26 @@
         <v>956</v>
       </c>
       <c r="D86" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
       <c r="E86" s="5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>864</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="4" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="I86" t="s">
         <v>904</v>
       </c>
       <c r="J86" t="s">
-        <v>473</v>
+        <v>13</v>
       </c>
       <c r="K86" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
@@ -7043,26 +7043,26 @@
         <v>956</v>
       </c>
       <c r="D87" t="s">
-        <v>926</v>
+        <v>905</v>
       </c>
       <c r="E87" s="5">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>864</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="4" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="I87" t="s">
-        <v>663</v>
+        <v>904</v>
       </c>
       <c r="J87" t="s">
-        <v>249</v>
+        <v>473</v>
       </c>
       <c r="K87" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
@@ -7076,26 +7076,26 @@
         <v>956</v>
       </c>
       <c r="D88" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="E88" s="5">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>864</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="4" t="s">
-        <v>537</v>
+        <v>872</v>
       </c>
       <c r="I88" t="s">
-        <v>663</v>
+        <v>908</v>
       </c>
       <c r="J88" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="K88" t="s">
-        <v>664</v>
+        <v>923</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
@@ -7208,26 +7208,26 @@
         <v>956</v>
       </c>
       <c r="D92" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="E92" s="5">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>864</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="4" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="I92" t="s">
-        <v>904</v>
+        <v>663</v>
       </c>
       <c r="J92" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="K92" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
@@ -7241,26 +7241,26 @@
         <v>956</v>
       </c>
       <c r="D93" t="s">
-        <v>907</v>
+        <v>928</v>
       </c>
       <c r="E93" s="5">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>864</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="4" t="s">
-        <v>872</v>
+        <v>537</v>
       </c>
       <c r="I93" t="s">
-        <v>908</v>
+        <v>663</v>
       </c>
       <c r="J93" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="K93" t="s">
-        <v>923</v>
+        <v>664</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
@@ -14292,8 +14292,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K282">
-    <sortCondition ref="D199:D282"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K308">
+    <sortCondition ref="A67:A308"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576">

--- a/docs/IMDB Top 250 Movies.xlsx
+++ b/docs/IMDB Top 250 Movies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\react\movie-bucketlist\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC854957-8508-4C0D-85E8-F647A4E95CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC953240-C93D-4725-ADD0-8FB26C357B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{346207D0-9AA0-42DB-A453-BB1282A9E7EA}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="1101">
   <si>
     <t>Drama</t>
   </si>
@@ -3287,6 +3287,42 @@
   </si>
   <si>
     <t>Ex-Marine Tommy returns home and convinces his father to train him for a mixed martial arts tournament. However, there is more at stake than the prize money as he will be fighting against his brother.</t>
+  </si>
+  <si>
+    <t>deep-magenta</t>
+  </si>
+  <si>
+    <t>vibrant-blue</t>
+  </si>
+  <si>
+    <t>vivid-orange</t>
+  </si>
+  <si>
+    <t>vivid-green</t>
+  </si>
+  <si>
+    <t>bright-yellow</t>
+  </si>
+  <si>
+    <t>teal</t>
+  </si>
+  <si>
+    <t>electric-cyan</t>
+  </si>
+  <si>
+    <t>rich-indigo</t>
+  </si>
+  <si>
+    <t>lime-green</t>
+  </si>
+  <si>
+    <t>warm-coral</t>
+  </si>
+  <si>
+    <t>bright-red-orange</t>
+  </si>
+  <si>
+    <t>strong-purple</t>
   </si>
 </sst>
 </file>
@@ -3834,7 +3870,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3852,6 +3888,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4177,8 +4233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B372DD-848A-447C-BEE1-0C4F8EF77C63}">
   <dimension ref="A1:K307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W96" sqref="W96"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D311" sqref="D311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4188,6 +4244,7 @@
     <col min="3" max="3" width="21.7265625" customWidth="1"/>
     <col min="4" max="4" width="47.7265625" customWidth="1"/>
     <col min="5" max="6" width="8.7265625" style="5"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
     <col min="8" max="8" width="8.7265625" style="4"/>
     <col min="9" max="9" width="26.36328125" customWidth="1"/>
   </cols>
@@ -4477,7 +4534,9 @@
       <c r="F9" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>1089</v>
+      </c>
       <c r="H9" s="4" t="s">
         <v>380</v>
       </c>
@@ -4873,7 +4932,9 @@
       <c r="F21" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>1090</v>
+      </c>
       <c r="H21" s="4" t="s">
         <v>872</v>
       </c>
@@ -4906,7 +4967,9 @@
       <c r="F22" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>1090</v>
+      </c>
       <c r="H22" s="4" t="s">
         <v>866</v>
       </c>
@@ -5335,7 +5398,9 @@
       <c r="F35" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>1091</v>
+      </c>
       <c r="H35" s="4" t="s">
         <v>866</v>
       </c>
@@ -6358,7 +6423,9 @@
       <c r="F66" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>1091</v>
+      </c>
       <c r="H66" s="4" t="s">
         <v>537</v>
       </c>
@@ -6490,7 +6557,9 @@
       <c r="F70" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>1092</v>
+      </c>
       <c r="H70" s="4" t="s">
         <v>380</v>
       </c>
@@ -6556,7 +6625,9 @@
       <c r="F72" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H72" s="4" t="s">
         <v>121</v>
       </c>
@@ -6589,7 +6660,9 @@
       <c r="F73" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H73" s="4" t="s">
         <v>537</v>
       </c>
@@ -6655,7 +6728,9 @@
       <c r="F75" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H75" s="4" t="s">
         <v>261</v>
       </c>
@@ -6721,7 +6796,9 @@
       <c r="F77" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>1096</v>
+      </c>
       <c r="H77" s="4" t="s">
         <v>537</v>
       </c>
@@ -6787,7 +6864,9 @@
       <c r="F79" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H79" s="4" t="s">
         <v>380</v>
       </c>
@@ -6853,7 +6932,9 @@
       <c r="F81" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>1089</v>
+      </c>
       <c r="H81" s="4" t="s">
         <v>738</v>
       </c>
@@ -7810,7 +7891,9 @@
       <c r="F110" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G110" s="1"/>
+      <c r="G110" s="1" t="s">
+        <v>1097</v>
+      </c>
       <c r="H110" s="4" t="s">
         <v>537</v>
       </c>
@@ -7876,7 +7959,9 @@
       <c r="F112" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G112" s="1"/>
+      <c r="G112" s="1" t="s">
+        <v>1098</v>
+      </c>
       <c r="H112" s="4" t="s">
         <v>738</v>
       </c>
@@ -8140,7 +8225,9 @@
       <c r="F120" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G120" s="2"/>
+      <c r="G120" s="2" t="s">
+        <v>1093</v>
+      </c>
       <c r="H120" s="4" t="s">
         <v>380</v>
       </c>
@@ -8635,7 +8722,9 @@
       <c r="F135" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G135" s="1"/>
+      <c r="G135" s="1" t="s">
+        <v>1099</v>
+      </c>
       <c r="H135" s="4" t="s">
         <v>188</v>
       </c>
@@ -8833,7 +8922,9 @@
       <c r="F141" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G141" s="1"/>
+      <c r="G141" s="1" t="s">
+        <v>1089</v>
+      </c>
       <c r="H141" s="4" t="s">
         <v>380</v>
       </c>
@@ -8932,7 +9023,9 @@
       <c r="F144" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G144" s="1"/>
+      <c r="G144" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H144" s="4" t="s">
         <v>537</v>
       </c>
@@ -9196,7 +9289,9 @@
       <c r="F152" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G152" s="1"/>
+      <c r="G152" s="1" t="s">
+        <v>1090</v>
+      </c>
       <c r="H152" s="4" t="s">
         <v>75</v>
       </c>
@@ -9625,7 +9720,9 @@
       <c r="F165" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G165" s="1"/>
+      <c r="G165" s="1" t="s">
+        <v>1100</v>
+      </c>
       <c r="H165" s="4" t="s">
         <v>738</v>
       </c>
@@ -10054,7 +10151,9 @@
       <c r="F178" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G178" s="1"/>
+      <c r="G178" s="1" t="s">
+        <v>1089</v>
+      </c>
       <c r="H178" s="4" t="s">
         <v>20</v>
       </c>
@@ -10846,7 +10945,9 @@
       <c r="F202" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G202" s="1"/>
+      <c r="G202" s="1" t="s">
+        <v>1091</v>
+      </c>
       <c r="H202" s="4" t="s">
         <v>537</v>
       </c>
@@ -11800,7 +11901,9 @@
       <c r="F231" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G231" s="1"/>
+      <c r="G231" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H231" s="4" t="s">
         <v>39</v>
       </c>
@@ -11833,7 +11936,9 @@
       <c r="F232" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G232" s="1"/>
+      <c r="G232" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H232" s="4" t="s">
         <v>20</v>
       </c>
@@ -11866,7 +11971,9 @@
       <c r="F233" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G233" s="1"/>
+      <c r="G233" s="1" t="s">
+        <v>1094</v>
+      </c>
       <c r="H233" s="4" t="s">
         <v>51</v>
       </c>
@@ -11998,7 +12105,9 @@
       <c r="F237" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G237" s="1"/>
+      <c r="G237" s="1" t="s">
+        <v>1093</v>
+      </c>
       <c r="H237" s="4" t="s">
         <v>121</v>
       </c>
@@ -12394,7 +12503,9 @@
       <c r="F249" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G249" s="1"/>
+      <c r="G249" s="1" t="s">
+        <v>1090</v>
+      </c>
       <c r="H249" s="4" t="s">
         <v>380</v>
       </c>
@@ -12526,7 +12637,9 @@
       <c r="F253" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G253" s="1"/>
+      <c r="G253" s="1" t="s">
+        <v>1098</v>
+      </c>
       <c r="H253" s="4" t="s">
         <v>380</v>
       </c>
@@ -12592,7 +12705,9 @@
       <c r="F255" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G255" s="1"/>
+      <c r="G255" s="1" t="s">
+        <v>1099</v>
+      </c>
       <c r="H255" s="4" t="s">
         <v>537</v>
       </c>
@@ -12955,7 +13070,9 @@
       <c r="F266" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G266" s="1"/>
+      <c r="G266" s="1" t="s">
+        <v>1095</v>
+      </c>
       <c r="H266" s="4" t="s">
         <v>380</v>
       </c>
@@ -12988,7 +13105,9 @@
       <c r="F267" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G267" s="1"/>
+      <c r="G267" s="1" t="s">
+        <v>1089</v>
+      </c>
       <c r="H267" s="4" t="s">
         <v>537</v>
       </c>
@@ -14296,8 +14415,16 @@
     <sortCondition ref="A67:A308"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14309,14 +14436,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H315">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>"8.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
       <formula>"8.0"</formula>
       <formula>"7.5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
       <formula>"7.5"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/IMDB Top 250 Movies.xlsx
+++ b/docs/IMDB Top 250 Movies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\react\movie-bucketlist\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F73DAB0-7CFF-42E7-AF74-50E1D40C4EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA361CD9-DFF1-4B67-982F-CA9845FEB4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{346207D0-9AA0-42DB-A453-BB1282A9E7EA}"/>
   </bookViews>
@@ -3861,18 +3861,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4246,8 +4235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B372DD-848A-447C-BEE1-0C4F8EF77C63}">
   <dimension ref="A1:K306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F311" sqref="F311"/>
+    <sheetView tabSelected="1" topLeftCell="A250" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A250" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7392,26 +7381,26 @@
         <v>956</v>
       </c>
       <c r="D95" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
       <c r="E95" s="5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>864</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="4" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="I95" t="s">
         <v>904</v>
       </c>
       <c r="J95" t="s">
-        <v>473</v>
+        <v>13</v>
       </c>
       <c r="K95" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
@@ -7425,26 +7414,26 @@
         <v>956</v>
       </c>
       <c r="D96" t="s">
-        <v>926</v>
+        <v>905</v>
       </c>
       <c r="E96" s="5">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>864</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="4" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="I96" t="s">
-        <v>663</v>
+        <v>904</v>
       </c>
       <c r="J96" t="s">
-        <v>249</v>
+        <v>473</v>
       </c>
       <c r="K96" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
@@ -7458,26 +7447,26 @@
         <v>956</v>
       </c>
       <c r="D97" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="E97" s="5">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>864</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="4" t="s">
-        <v>537</v>
+        <v>872</v>
       </c>
       <c r="I97" t="s">
-        <v>663</v>
+        <v>908</v>
       </c>
       <c r="J97" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="K97" t="s">
-        <v>664</v>
+        <v>923</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
@@ -7590,26 +7579,26 @@
         <v>956</v>
       </c>
       <c r="D101" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="E101" s="5">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>864</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="4" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="I101" t="s">
-        <v>904</v>
+        <v>663</v>
       </c>
       <c r="J101" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="K101" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
@@ -7623,26 +7612,26 @@
         <v>956</v>
       </c>
       <c r="D102" t="s">
-        <v>907</v>
+        <v>928</v>
       </c>
       <c r="E102" s="5">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>864</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="4" t="s">
-        <v>872</v>
+        <v>537</v>
       </c>
       <c r="I102" t="s">
-        <v>908</v>
+        <v>663</v>
       </c>
       <c r="J102" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="K102" t="s">
-        <v>923</v>
+        <v>664</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
@@ -8144,29 +8133,29 @@
         <v>97</v>
       </c>
       <c r="C118" t="s">
-        <v>449</v>
+        <v>224</v>
       </c>
       <c r="D118" t="s">
-        <v>931</v>
+        <v>225</v>
       </c>
       <c r="E118" s="5">
-        <v>2008</v>
+        <v>1981</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="G118" s="2"/>
+      <c r="G118" s="1"/>
       <c r="H118" s="4" t="s">
-        <v>932</v>
+        <v>188</v>
       </c>
       <c r="I118" t="s">
         <v>26</v>
       </c>
       <c r="J118" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="K118" t="s">
-        <v>933</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
@@ -8180,26 +8169,26 @@
         <v>449</v>
       </c>
       <c r="D119" t="s">
-        <v>450</v>
+        <v>929</v>
       </c>
       <c r="E119" s="5">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="G119" s="1"/>
+      <c r="G119" s="2"/>
       <c r="H119" s="4" t="s">
-        <v>380</v>
+        <v>866</v>
       </c>
       <c r="I119" t="s">
         <v>26</v>
       </c>
       <c r="J119" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K119" t="s">
-        <v>451</v>
+        <v>930</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
@@ -8210,29 +8199,29 @@
         <v>97</v>
       </c>
       <c r="C120" t="s">
-        <v>224</v>
+        <v>449</v>
       </c>
       <c r="D120" t="s">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="E120" s="5">
-        <v>1981</v>
+        <v>1989</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>864</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="4" t="s">
-        <v>188</v>
+        <v>380</v>
       </c>
       <c r="I120" t="s">
         <v>26</v>
       </c>
       <c r="J120" t="s">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="K120" t="s">
-        <v>227</v>
+        <v>451</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
@@ -8246,26 +8235,26 @@
         <v>449</v>
       </c>
       <c r="D121" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E121" s="5">
-        <v>1984</v>
+        <v>2008</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>864</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="4" t="s">
-        <v>866</v>
+        <v>932</v>
       </c>
       <c r="I121" t="s">
         <v>26</v>
       </c>
       <c r="J121" t="s">
-        <v>96</v>
+        <v>265</v>
       </c>
       <c r="K121" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
@@ -12805,10 +12794,10 @@
         <v>29</v>
       </c>
       <c r="D259" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E259" s="5">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>881</v>
@@ -12817,16 +12806,16 @@
         <v>1091</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="I259" t="s">
         <v>31</v>
       </c>
       <c r="J259" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="K259" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.35">
@@ -12840,10 +12829,10 @@
         <v>29</v>
       </c>
       <c r="D260" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E260" s="5">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>881</v>
@@ -12852,16 +12841,16 @@
         <v>1091</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I260" t="s">
         <v>31</v>
       </c>
       <c r="J260" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="K260" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.35">
@@ -14400,15 +14389,18 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K306">
-    <sortCondition ref="D1:D306"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K308">
+    <sortCondition ref="A250:A308"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14425,19 +14417,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H314">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>"8.0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
       <formula>"8.0"</formula>
       <formula>"7.5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
       <formula>"7.5"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/IMDB Top 250 Movies.xlsx
+++ b/docs/IMDB Top 250 Movies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\react\movie-bucketlist\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA361CD9-DFF1-4B67-982F-CA9845FEB4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911E819F-41A5-4A31-A077-68BDF752BF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{346207D0-9AA0-42DB-A453-BB1282A9E7EA}"/>
   </bookViews>
@@ -2617,9 +2617,6 @@
     <t>false</t>
   </si>
   <si>
-    <t>BlacKkKlansman</t>
-  </si>
-  <si>
     <t>7.5</t>
   </si>
   <si>
@@ -3314,6 +3311,9 @@
   </si>
   <si>
     <t>strong-purple</t>
+  </si>
+  <si>
+    <t>BlacKkKlans­man</t>
   </si>
 </sst>
 </file>
@@ -4235,8 +4235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B372DD-848A-447C-BEE1-0C4F8EF77C63}">
   <dimension ref="A1:K306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A250" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4253,37 +4253,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1" t="s">
         <v>1068</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>1069</v>
       </c>
-      <c r="C1" t="s">
-        <v>892</v>
-      </c>
-      <c r="D1" t="s">
-        <v>891</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" t="s">
         <v>893</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I1" t="s">
         <v>1070</v>
       </c>
-      <c r="G1" t="s">
-        <v>894</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" t="s">
         <v>1072</v>
       </c>
-      <c r="I1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1073</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I4" t="s">
         <v>782</v>
@@ -4382,7 +4382,7 @@
         <v>210</v>
       </c>
       <c r="K4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -4534,10 +4534,10 @@
         <v>1971</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>380</v>
@@ -4593,10 +4593,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D11" t="s">
         <v>1010</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1011</v>
       </c>
       <c r="E11">
         <v>1988</v>
@@ -4608,13 +4608,13 @@
         <v>738</v>
       </c>
       <c r="I11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J11" t="s">
         <v>65</v>
       </c>
       <c r="K11" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -4955,22 +4955,22 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
+        <v>869</v>
+      </c>
+      <c r="D22" t="s">
         <v>870</v>
-      </c>
-      <c r="D22" t="s">
-        <v>871</v>
       </c>
       <c r="E22" s="5">
         <v>2009</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I22" t="s">
         <v>122</v>
@@ -4979,7 +4979,7 @@
         <v>504</v>
       </c>
       <c r="K22" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -4990,31 +4990,31 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D23" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E23" s="5">
         <v>2022</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I23" t="s">
         <v>122</v>
       </c>
       <c r="J23" t="s">
+        <v>874</v>
+      </c>
+      <c r="K23" t="s">
         <v>875</v>
-      </c>
-      <c r="K23" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -5091,7 +5091,7 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D26" t="s">
         <v>124</v>
@@ -5113,7 +5113,7 @@
         <v>108</v>
       </c>
       <c r="K26" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -5124,10 +5124,10 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D27" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E27" s="5">
         <v>1989</v>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I27" t="s">
         <v>48</v>
@@ -5146,7 +5146,7 @@
         <v>348</v>
       </c>
       <c r="K27" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -5157,10 +5157,10 @@
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D28" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E28" s="5">
         <v>1990</v>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I28" t="s">
         <v>48</v>
@@ -5179,7 +5179,7 @@
         <v>96</v>
       </c>
       <c r="K28" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -5421,31 +5421,31 @@
         <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D36" t="s">
-        <v>865</v>
+        <v>1097</v>
       </c>
       <c r="E36" s="5">
         <v>2018</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H36" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="I36" t="s">
         <v>866</v>
-      </c>
-      <c r="I36" t="s">
-        <v>867</v>
       </c>
       <c r="J36" t="s">
         <v>525</v>
       </c>
       <c r="K36" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -5555,10 +5555,10 @@
         <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D40" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E40">
         <v>1976</v>
@@ -5567,7 +5567,7 @@
         <v>864</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I40" t="s">
         <v>403</v>
@@ -5576,7 +5576,7 @@
         <v>234</v>
       </c>
       <c r="K40" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -6151,7 +6151,7 @@
         <v>442</v>
       </c>
       <c r="D58" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E58" s="5">
         <v>1990</v>
@@ -6161,16 +6161,16 @@
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="I58" t="s">
         <v>898</v>
-      </c>
-      <c r="I58" t="s">
-        <v>899</v>
       </c>
       <c r="J58" t="s">
         <v>65</v>
       </c>
       <c r="K58" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
@@ -6184,7 +6184,7 @@
         <v>442</v>
       </c>
       <c r="D59" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E59" s="5">
         <v>1995</v>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I59" t="s">
         <v>444</v>
@@ -6203,7 +6203,7 @@
         <v>381</v>
       </c>
       <c r="K59" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
@@ -6247,10 +6247,10 @@
         <v>51</v>
       </c>
       <c r="C61" t="s">
+        <v>997</v>
+      </c>
+      <c r="D61" t="s">
         <v>998</v>
-      </c>
-      <c r="D61" t="s">
-        <v>999</v>
       </c>
       <c r="E61">
         <v>2001</v>
@@ -6262,13 +6262,13 @@
         <v>738</v>
       </c>
       <c r="I61" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="J61" t="s">
         <v>218</v>
       </c>
       <c r="K61" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
@@ -6348,7 +6348,7 @@
         <v>267</v>
       </c>
       <c r="D64" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E64" s="5">
         <v>1964</v>
@@ -6367,7 +6367,7 @@
         <v>268</v>
       </c>
       <c r="K64" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
@@ -6378,10 +6378,10 @@
         <v>55</v>
       </c>
       <c r="C65" t="s">
+        <v>984</v>
+      </c>
+      <c r="D65" t="s">
         <v>985</v>
-      </c>
-      <c r="D65" t="s">
-        <v>986</v>
       </c>
       <c r="E65">
         <v>2011</v>
@@ -6390,16 +6390,16 @@
         <v>864</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I65" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="J65" t="s">
         <v>561</v>
       </c>
       <c r="K65" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
@@ -6410,10 +6410,10 @@
         <v>56</v>
       </c>
       <c r="C66" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D66" t="s">
         <v>1025</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1026</v>
       </c>
       <c r="E66">
         <v>2021</v>
@@ -6431,7 +6431,7 @@
         <v>154</v>
       </c>
       <c r="K66" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
@@ -6442,10 +6442,10 @@
         <v>56</v>
       </c>
       <c r="C67" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D67" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E67">
         <v>2024</v>
@@ -6460,10 +6460,10 @@
         <v>447</v>
       </c>
       <c r="J67" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="K67" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
@@ -6474,10 +6474,10 @@
         <v>57</v>
       </c>
       <c r="C68" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D68" t="s">
         <v>1018</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1019</v>
       </c>
       <c r="E68">
         <v>1990</v>
@@ -6486,16 +6486,16 @@
         <v>864</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I68" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J68" t="s">
         <v>294</v>
       </c>
       <c r="K68" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
@@ -6572,10 +6572,10 @@
         <v>60</v>
       </c>
       <c r="C71" t="s">
+        <v>987</v>
+      </c>
+      <c r="D71" t="s">
         <v>988</v>
-      </c>
-      <c r="D71" t="s">
-        <v>989</v>
       </c>
       <c r="E71">
         <v>2014</v>
@@ -6584,16 +6584,16 @@
         <v>864</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I71" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J71" t="s">
         <v>348</v>
       </c>
       <c r="K71" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
@@ -6679,10 +6679,10 @@
         <v>2003</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>537</v>
@@ -6813,10 +6813,10 @@
         <v>1987</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>380</v>
@@ -6872,10 +6872,10 @@
         <v>69</v>
       </c>
       <c r="C80" t="s">
+        <v>976</v>
+      </c>
+      <c r="D80" t="s">
         <v>977</v>
-      </c>
-      <c r="D80" t="s">
-        <v>978</v>
       </c>
       <c r="E80">
         <v>2017</v>
@@ -6884,16 +6884,16 @@
         <v>864</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I80" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J80" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="K80" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
@@ -6913,10 +6913,10 @@
         <v>2000</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>121</v>
@@ -6948,10 +6948,10 @@
         <v>2014</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>537</v>
@@ -7016,10 +7016,10 @@
         <v>1997</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>261</v>
@@ -7084,10 +7084,10 @@
         <v>2008</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>537</v>
@@ -7152,10 +7152,10 @@
         <v>2018</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>380</v>
@@ -7211,31 +7211,31 @@
         <v>79</v>
       </c>
       <c r="C90" t="s">
+        <v>876</v>
+      </c>
+      <c r="D90" t="s">
         <v>877</v>
-      </c>
-      <c r="D90" t="s">
-        <v>878</v>
       </c>
       <c r="E90" s="5">
         <v>2014</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>738</v>
       </c>
       <c r="I90" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J90" t="s">
         <v>118</v>
       </c>
       <c r="K90" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
@@ -7378,10 +7378,10 @@
         <v>84</v>
       </c>
       <c r="C95" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D95" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E95" s="5">
         <v>2001</v>
@@ -7391,16 +7391,16 @@
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I95" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J95" t="s">
         <v>13</v>
       </c>
       <c r="K95" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
@@ -7411,10 +7411,10 @@
         <v>84</v>
       </c>
       <c r="C96" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D96" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E96" s="5">
         <v>2002</v>
@@ -7424,16 +7424,16 @@
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I96" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J96" t="s">
         <v>473</v>
       </c>
       <c r="K96" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
@@ -7444,10 +7444,10 @@
         <v>84</v>
       </c>
       <c r="C97" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D97" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E97" s="5">
         <v>2004</v>
@@ -7457,16 +7457,16 @@
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I97" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J97" t="s">
         <v>4</v>
       </c>
       <c r="K97" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
@@ -7477,10 +7477,10 @@
         <v>84</v>
       </c>
       <c r="C98" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D98" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E98" s="5">
         <v>2005</v>
@@ -7490,16 +7490,16 @@
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="I98" t="s">
         <v>910</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>911</v>
       </c>
-      <c r="J98" t="s">
-        <v>912</v>
-      </c>
       <c r="K98" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
@@ -7510,10 +7510,10 @@
         <v>84</v>
       </c>
       <c r="C99" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D99" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E99" s="5">
         <v>2009</v>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I99" t="s">
         <v>663</v>
@@ -7532,7 +7532,7 @@
         <v>36</v>
       </c>
       <c r="K99" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
@@ -7543,10 +7543,10 @@
         <v>84</v>
       </c>
       <c r="C100" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D100" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E100" s="5">
         <v>2007</v>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I100" t="s">
         <v>663</v>
@@ -7565,7 +7565,7 @@
         <v>420</v>
       </c>
       <c r="K100" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
@@ -7576,10 +7576,10 @@
         <v>84</v>
       </c>
       <c r="C101" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D101" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E101" s="5">
         <v>2010</v>
@@ -7589,7 +7589,7 @@
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I101" t="s">
         <v>663</v>
@@ -7598,7 +7598,7 @@
         <v>249</v>
       </c>
       <c r="K101" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
@@ -7609,10 +7609,10 @@
         <v>84</v>
       </c>
       <c r="C102" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D102" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E102" s="5">
         <v>2011</v>
@@ -7675,10 +7675,10 @@
         <v>86</v>
       </c>
       <c r="C104" t="s">
+        <v>968</v>
+      </c>
+      <c r="D104" t="s">
         <v>969</v>
-      </c>
-      <c r="D104" t="s">
-        <v>970</v>
       </c>
       <c r="E104">
         <v>2018</v>
@@ -7687,16 +7687,16 @@
         <v>864</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I104" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J104" t="s">
         <v>81</v>
       </c>
       <c r="K104" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
@@ -7740,10 +7740,10 @@
         <v>88</v>
       </c>
       <c r="C106" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D106" t="s">
         <v>1075</v>
-      </c>
-      <c r="D106" t="s">
-        <v>1076</v>
       </c>
       <c r="E106" s="5">
         <v>1990</v>
@@ -7752,16 +7752,16 @@
         <v>864</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I106" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J106" t="s">
         <v>320</v>
       </c>
       <c r="K106" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
@@ -7772,10 +7772,10 @@
         <v>88</v>
       </c>
       <c r="C107" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D107" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E107" s="5">
         <v>1992</v>
@@ -7784,16 +7784,16 @@
         <v>864</v>
       </c>
       <c r="H107" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I107" t="s">
+        <v>903</v>
+      </c>
+      <c r="J107" t="s">
         <v>1079</v>
       </c>
-      <c r="I107" t="s">
-        <v>904</v>
-      </c>
-      <c r="J107" t="s">
+      <c r="K107" t="s">
         <v>1080</v>
-      </c>
-      <c r="K107" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
@@ -7837,7 +7837,7 @@
         <v>90</v>
       </c>
       <c r="C109" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>713</v>
@@ -7853,7 +7853,7 @@
         <v>537</v>
       </c>
       <c r="I109" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J109" t="s">
         <v>234</v>
@@ -7870,10 +7870,10 @@
         <v>90</v>
       </c>
       <c r="C110" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E110" s="1">
         <v>2014</v>
@@ -7883,16 +7883,16 @@
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I110" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J110" t="s">
         <v>173</v>
       </c>
       <c r="K110" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
@@ -7903,10 +7903,10 @@
         <v>90</v>
       </c>
       <c r="C111" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E111" s="1">
         <v>2019</v>
@@ -7916,16 +7916,16 @@
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I111" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J111" t="s">
+        <v>965</v>
+      </c>
+      <c r="K111" t="s">
         <v>966</v>
-      </c>
-      <c r="K111" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
@@ -8005,7 +8005,7 @@
         <v>46</v>
       </c>
       <c r="D114" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E114">
         <v>2000</v>
@@ -8017,13 +8017,13 @@
         <v>537</v>
       </c>
       <c r="I114" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="J114" t="s">
         <v>234</v>
       </c>
       <c r="K114" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
@@ -8169,7 +8169,7 @@
         <v>449</v>
       </c>
       <c r="D119" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E119" s="5">
         <v>1984</v>
@@ -8179,7 +8179,7 @@
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I119" t="s">
         <v>26</v>
@@ -8188,7 +8188,7 @@
         <v>96</v>
       </c>
       <c r="K119" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
@@ -8235,7 +8235,7 @@
         <v>449</v>
       </c>
       <c r="D121" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E121" s="5">
         <v>2008</v>
@@ -8245,7 +8245,7 @@
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I121" t="s">
         <v>26</v>
@@ -8254,7 +8254,7 @@
         <v>265</v>
       </c>
       <c r="K121" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
@@ -8307,10 +8307,10 @@
         <v>2015</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H123" s="4" t="s">
         <v>537</v>
@@ -8375,10 +8375,10 @@
         <v>2007</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H125" s="4" t="s">
         <v>738</v>
@@ -8621,7 +8621,7 @@
         <v>81</v>
       </c>
       <c r="K132" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
@@ -8632,7 +8632,7 @@
         <v>109</v>
       </c>
       <c r="C133" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D133" t="s">
         <v>553</v>
@@ -8641,10 +8641,10 @@
         <v>2003</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H133" s="4" t="s">
         <v>380</v>
@@ -8667,10 +8667,10 @@
         <v>109</v>
       </c>
       <c r="C134" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D134" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E134" s="5">
         <v>2004</v>
@@ -8689,7 +8689,7 @@
         <v>123</v>
       </c>
       <c r="K134" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
@@ -8700,10 +8700,10 @@
         <v>110</v>
       </c>
       <c r="C135" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D135" t="s">
         <v>1034</v>
-      </c>
-      <c r="D135" t="s">
-        <v>1035</v>
       </c>
       <c r="E135">
         <v>2023</v>
@@ -8712,16 +8712,16 @@
         <v>864</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I135" t="s">
         <v>71</v>
       </c>
       <c r="J135" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="K135" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
@@ -8831,10 +8831,10 @@
         <v>114</v>
       </c>
       <c r="C139" t="s">
+        <v>979</v>
+      </c>
+      <c r="D139" t="s">
         <v>980</v>
-      </c>
-      <c r="D139" t="s">
-        <v>981</v>
       </c>
       <c r="E139">
         <v>2017</v>
@@ -8843,16 +8843,16 @@
         <v>864</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I139" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J139" t="s">
         <v>829</v>
       </c>
       <c r="K139" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
@@ -9094,10 +9094,10 @@
         <v>122</v>
       </c>
       <c r="C147" t="s">
+        <v>990</v>
+      </c>
+      <c r="D147" t="s">
         <v>991</v>
-      </c>
-      <c r="D147" t="s">
-        <v>992</v>
       </c>
       <c r="E147">
         <v>2003</v>
@@ -9106,16 +9106,16 @@
         <v>864</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I147" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J147" t="s">
         <v>173</v>
       </c>
       <c r="K147" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
@@ -9234,10 +9234,10 @@
         <v>2000</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>188</v>
@@ -9326,10 +9326,10 @@
         <v>129</v>
       </c>
       <c r="C154" t="s">
+        <v>974</v>
+      </c>
+      <c r="D154" t="s">
         <v>975</v>
-      </c>
-      <c r="D154" t="s">
-        <v>976</v>
       </c>
       <c r="E154">
         <v>2019</v>
@@ -9338,16 +9338,16 @@
         <v>864</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I154" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J154" t="s">
         <v>57</v>
       </c>
       <c r="K154" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
@@ -9466,10 +9466,10 @@
         <v>1975</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H158" s="4" t="s">
         <v>380</v>
@@ -9495,7 +9495,7 @@
         <v>46</v>
       </c>
       <c r="D159" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E159">
         <v>2016</v>
@@ -9504,16 +9504,16 @@
         <v>864</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I159" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J159" t="s">
         <v>554</v>
       </c>
       <c r="K159" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
@@ -9557,10 +9557,10 @@
         <v>136</v>
       </c>
       <c r="C161" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D161" t="s">
         <v>1001</v>
-      </c>
-      <c r="D161" t="s">
-        <v>1002</v>
       </c>
       <c r="E161">
         <v>2001</v>
@@ -9569,16 +9569,16 @@
         <v>864</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I161" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J161" t="s">
         <v>222</v>
       </c>
       <c r="K161" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.35">
@@ -9631,10 +9631,10 @@
         <v>1988</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H163" s="4" t="s">
         <v>537</v>
@@ -9690,10 +9690,10 @@
         <v>140</v>
       </c>
       <c r="C165" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D165" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E165">
         <v>1968</v>
@@ -9702,16 +9702,16 @@
         <v>864</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I165" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J165" t="s">
         <v>22</v>
       </c>
       <c r="K165" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.35">
@@ -9929,10 +9929,10 @@
         <v>1975</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H172" s="4" t="s">
         <v>75</v>
@@ -9977,7 +9977,7 @@
         <v>96</v>
       </c>
       <c r="K173" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.35">
@@ -10024,7 +10024,7 @@
         <v>247</v>
       </c>
       <c r="D175" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E175">
         <v>2023</v>
@@ -10033,16 +10033,16 @@
         <v>864</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I175" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="J175" t="s">
         <v>294</v>
       </c>
       <c r="K175" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.35">
@@ -10174,7 +10174,7 @@
         <v>354</v>
       </c>
       <c r="K179" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.35">
@@ -10218,10 +10218,10 @@
         <v>156</v>
       </c>
       <c r="C181" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D181" t="s">
         <v>1004</v>
-      </c>
-      <c r="D181" t="s">
-        <v>1005</v>
       </c>
       <c r="E181">
         <v>2023</v>
@@ -10233,13 +10233,13 @@
         <v>188</v>
       </c>
       <c r="I181" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="J181" t="s">
         <v>630</v>
       </c>
       <c r="K181" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.35">
@@ -10424,10 +10424,10 @@
         <v>1988</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H187" s="4" t="s">
         <v>738</v>
@@ -10780,10 +10780,10 @@
         <v>173</v>
       </c>
       <c r="C198" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D198" t="s">
         <v>1007</v>
-      </c>
-      <c r="D198" t="s">
-        <v>1008</v>
       </c>
       <c r="E198">
         <v>2023</v>
@@ -10792,16 +10792,16 @@
         <v>864</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I198" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J198" t="s">
         <v>81</v>
       </c>
       <c r="K198" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.35">
@@ -10887,10 +10887,10 @@
         <v>1993</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H201" s="4" t="s">
         <v>20</v>
@@ -11213,7 +11213,7 @@
         <v>62</v>
       </c>
       <c r="D211" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E211" s="5">
         <v>1999</v>
@@ -11223,7 +11223,7 @@
       </c>
       <c r="G211" s="2"/>
       <c r="H211" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="I211" t="s">
         <v>117</v>
@@ -11232,7 +11232,7 @@
         <v>68</v>
       </c>
       <c r="K211" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.35">
@@ -11246,7 +11246,7 @@
         <v>62</v>
       </c>
       <c r="D212" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E212" s="5">
         <v>2002</v>
@@ -11256,7 +11256,7 @@
       </c>
       <c r="G212" s="2"/>
       <c r="H212" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="I212" t="s">
         <v>117</v>
@@ -11265,7 +11265,7 @@
         <v>4</v>
       </c>
       <c r="K212" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.35">
@@ -11279,7 +11279,7 @@
         <v>62</v>
       </c>
       <c r="D213" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E213" s="5">
         <v>2005</v>
@@ -11289,7 +11289,7 @@
       </c>
       <c r="G213" s="2"/>
       <c r="H213" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I213" t="s">
         <v>117</v>
@@ -11298,7 +11298,7 @@
         <v>468</v>
       </c>
       <c r="K213" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.35">
@@ -11312,7 +11312,7 @@
         <v>62</v>
       </c>
       <c r="D214" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E214" s="5">
         <v>1977</v>
@@ -11364,7 +11364,7 @@
         <v>65</v>
       </c>
       <c r="K215" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.35">
@@ -11441,10 +11441,10 @@
         <v>188</v>
       </c>
       <c r="C218" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D218" t="s">
         <v>1029</v>
-      </c>
-      <c r="D218" t="s">
-        <v>1030</v>
       </c>
       <c r="E218">
         <v>2023</v>
@@ -11453,16 +11453,16 @@
         <v>864</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I218" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J218" t="s">
         <v>268</v>
       </c>
       <c r="K218" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.35">
@@ -11509,7 +11509,7 @@
         <v>66</v>
       </c>
       <c r="D220" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E220" s="5">
         <v>1984</v>
@@ -11561,7 +11561,7 @@
         <v>123</v>
       </c>
       <c r="K221" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.35">
@@ -11713,10 +11713,10 @@
         <v>1998</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H226" s="4" t="s">
         <v>537</v>
@@ -11772,10 +11772,10 @@
         <v>197</v>
       </c>
       <c r="C228" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D228" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E228">
         <v>1985</v>
@@ -11784,16 +11784,16 @@
         <v>864</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I228" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="J228" t="s">
         <v>484</v>
       </c>
       <c r="K228" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.35">
@@ -11837,7 +11837,7 @@
         <v>199</v>
       </c>
       <c r="C230" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D230" t="s">
         <v>10</v>
@@ -11870,7 +11870,7 @@
         <v>199</v>
       </c>
       <c r="C231" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D231" t="s">
         <v>270</v>
@@ -11999,10 +11999,10 @@
         <v>203</v>
       </c>
       <c r="C235" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D235" t="s">
         <v>1015</v>
-      </c>
-      <c r="D235" t="s">
-        <v>1016</v>
       </c>
       <c r="E235">
         <v>1981</v>
@@ -12011,16 +12011,16 @@
         <v>864</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I235" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J235" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="K235" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.35">
@@ -12130,7 +12130,7 @@
         <v>207</v>
       </c>
       <c r="C239" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D239" t="s">
         <v>6</v>
@@ -12152,7 +12152,7 @@
         <v>8</v>
       </c>
       <c r="K239" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.35">
@@ -12163,7 +12163,7 @@
         <v>207</v>
       </c>
       <c r="C240" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D240" t="s">
         <v>16</v>
@@ -12196,10 +12196,10 @@
         <v>207</v>
       </c>
       <c r="C241" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D241" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E241" s="5">
         <v>1990</v>
@@ -12209,7 +12209,7 @@
       </c>
       <c r="G241" s="2"/>
       <c r="H241" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I241" t="s">
         <v>7</v>
@@ -12218,7 +12218,7 @@
         <v>504</v>
       </c>
       <c r="K241" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.35">
@@ -12658,10 +12658,10 @@
         <v>221</v>
       </c>
       <c r="C255" t="s">
+        <v>971</v>
+      </c>
+      <c r="D255" t="s">
         <v>972</v>
-      </c>
-      <c r="D255" t="s">
-        <v>973</v>
       </c>
       <c r="E255">
         <v>2019</v>
@@ -12670,16 +12670,16 @@
         <v>864</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I255" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J255" t="s">
         <v>131</v>
       </c>
       <c r="K255" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.35">
@@ -12765,10 +12765,10 @@
         <v>2001</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H258" s="4" t="s">
         <v>39</v>
@@ -12800,10 +12800,10 @@
         <v>2002</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H259" s="4" t="s">
         <v>51</v>
@@ -12835,10 +12835,10 @@
         <v>2003</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H260" s="4" t="s">
         <v>20</v>
@@ -12877,13 +12877,13 @@
         <v>51</v>
       </c>
       <c r="I261" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J261" t="s">
         <v>68</v>
       </c>
       <c r="K261" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.35">
@@ -12897,7 +12897,7 @@
         <v>698</v>
       </c>
       <c r="D262" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E262">
         <v>2022</v>
@@ -12906,16 +12906,16 @@
         <v>864</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I262" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="J262" t="s">
         <v>398</v>
       </c>
       <c r="K262" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.35">
@@ -13001,10 +13001,10 @@
         <v>2006</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H265" s="4" t="s">
         <v>121</v>
@@ -13027,10 +13027,10 @@
         <v>230</v>
       </c>
       <c r="C266" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D266" t="s">
         <v>1022</v>
-      </c>
-      <c r="D266" t="s">
-        <v>1023</v>
       </c>
       <c r="E266">
         <v>1975</v>
@@ -13039,16 +13039,16 @@
         <v>864</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I266" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="J266" t="s">
         <v>561</v>
       </c>
       <c r="K266" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.35">
@@ -13431,10 +13431,10 @@
         <v>1998</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H278" s="4" t="s">
         <v>380</v>
@@ -13526,7 +13526,7 @@
         <v>698</v>
       </c>
       <c r="D281" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E281">
         <v>2022</v>
@@ -13535,7 +13535,7 @@
         <v>864</v>
       </c>
       <c r="H281" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I281" t="s">
         <v>323</v>
@@ -13544,7 +13544,7 @@
         <v>210</v>
       </c>
       <c r="K281" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.35">
@@ -13597,10 +13597,10 @@
         <v>2013</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H283" s="4" t="s">
         <v>380</v>
@@ -13665,10 +13665,10 @@
         <v>2017</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H285" s="4" t="s">
         <v>537</v>
@@ -13823,7 +13823,7 @@
         <v>254</v>
       </c>
       <c r="C290" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D290" t="s">
         <v>288</v>
@@ -13832,10 +13832,10 @@
         <v>1995</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H290" s="4" t="s">
         <v>261</v>
@@ -13858,22 +13858,22 @@
         <v>254</v>
       </c>
       <c r="C291" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D291" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E291" s="5">
         <v>1999</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H291" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I291" t="s">
         <v>289</v>
@@ -13882,7 +13882,7 @@
         <v>718</v>
       </c>
       <c r="K291" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.35">
@@ -13893,7 +13893,7 @@
         <v>254</v>
       </c>
       <c r="C292" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D292" t="s">
         <v>318</v>
@@ -13902,10 +13902,10 @@
         <v>2010</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H292" s="4" t="s">
         <v>261</v>
@@ -13928,31 +13928,31 @@
         <v>254</v>
       </c>
       <c r="C293" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D293" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E293" s="5">
         <v>2019</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I293" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J293" t="s">
         <v>561</v>
       </c>
       <c r="K293" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.35">
@@ -14038,10 +14038,10 @@
         <v>2009</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H296" s="4" t="s">
         <v>380</v>
@@ -14073,10 +14073,10 @@
         <v>2005</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H297" s="4" t="s">
         <v>537</v>
@@ -14187,7 +14187,7 @@
         <v>468</v>
       </c>
       <c r="K300" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.35">
